--- a/issuedot-server/static/2022-08-25.xlsx
+++ b/issuedot-server/static/2022-08-25.xlsx
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>산업부 "체코·폴란드 수주 모멘텀 될 것…원전 생태계 활성화 기대""對러시아 제재도 고려해 수주…원자로 아닌 발전설비라 제재대상 아냐"전문가 "원전 부속건물 수주인 점 아쉬워…원전 '르네상스' 대비해야"한수원, 이집트 엘다바 원전 2차측 건설사업 수주[한수원 제공. 재판매 및 DB 금지](서울=연합뉴스) 권희원 기자 = 정부가 13년 만에 대규모 해외 원전 건설 프로젝트를 수주하면서 윤석열 정부가 출범 직후부터 약속한 '2030년까지 원전 10기 수출' 목표 달성에 속도가 붙을지 주목된다.25일 산업통상자원부에 따르면 한국수력원자력은 이날 이집트 카이로에서 러시아 국영 원전기업 로사톰의 원전건설 담당 자회사인 ASE JSC사(社)와 3조원 규모의 이집트 엘다바 원전 건설 프로젝트 수주 계약을 체결했다.산업부는 이번 이집트 원전 건설 프로젝트 수주가 윤석열 정부의 첫 원전 수출 성과인 동시에 향후 체코, 폴란드 원전 수주의 강력한 모멘텀이 될 것으로 평가하고 있다.이번 대규모 원전 사업 수주가 2009년 아랍에미리트(UAE) 바라카 원전 이후 13년 만이자 중동에 이어 아프리카 원전 시장 첫 진출이라는 데도 의미를 부여하고 있다.◇ 정부 "원전수출 정책 첫 가시적 성과…체코·폴란드 수주 모멘텀 될 것"이창양 산업부 장관은 "이번 엘다바 프로젝트 수주는 윤석열 정부의 강력한 원전 수출 정책과 연계된 첫 가시적인 성과"라며 "탈원전 폐기를 공식화하고 원전수출전략 추진위원회를 가동하는 등 원전 정책의 변화와 강력한 수출 추진 의지가 계약 성사에 기여한 것"이라고 밝혔다.이어 "체코, 폴란드 등 우리 원전의 우수성을 높이 평가하고 원전 협력을 타진하는 국가들이 많은 만큼 앞으로 우리가 가진 모든 역량을 총결집해 원전 수출이 새로운 국부를 창출하고 성장산업으로 커나갈 수 있도록 강력히 지원하겠다"고 강조했다.정부는 지난 몇 년간 '일감 절벽'으로 어려움을 겪어 온 원전 기자재·시공업체에 일감을 공급하며 원전산업 생태계에 활력을 불어넣을 수 있을 것으로 기대하고 있다.한수원과 국내 기자재 업체가 함께 이집트에 진출함으로써 신한울 3·4호기 등 국내 원전 건설 착수·발주가 본격화되기 전에 일감 창출의 마중물 역할을 하게 될 것이라는 얘기다.무엇보다 주요 원전 수출국으로 꼽히는 체코, 폴란드 등과의 협상 과정에서 이번 수주 실적이 유리하게 작용할 것으로 기대하고 있다.또한 아프리카 역내 중심국인 이집트가 최초로 시행하는 원전 사업에 참여하게 된 만큼 우리 기업들에 아프리카 원전 시장 진출 기회를 제공해 줄 수 있을 것으로 전망하고 있다.엘다바 원전 프로젝트[산업부 제공. 재판매 및 DB 금지]산업부는 또 100여개 이상의 기자재 업체로 구성된 탄탄한 원전 산업 공급망과 전 세계 최저 수준의 건설 단가를 바탕으로 우리나라의 원전 기술이 전 세계 발주처로부터 높은 평가를 받고 있다고 설명했다.한국의 원전 건설 단가는 ㎾(킬로와트)당 3천571달러 수준으로 중국(4천174달러), 미국(5천833달러), 러시아(6천250달러), 프랑스(7천931달러) 등에 비해 낮은 편이다.산업부는 이번 이집트 원전 건설 프로젝트의 주계약자가 러시아 국영 원자력에너지사인 로사톰의 자회사 'ASE'인 만큼 러시아에 대한 국제 제재와 미국의 입장까지 종합적으로 고려해 계약 체결을 추진했다고 설명했다.박일준 산업부 2차관은 출입기자단 대상 백브리핑에서 "돌발적인 전쟁으로 러시아에 대한 국제 제재가 시작되면서 이집트 원전 건설 사업이 정상적으로 이뤄질지에 대한 회의적 시각이 있었지만, 러시아·이집트·미국의 입장을 수시로 점검하면서 사업에 참여했다"고 설명했다.박 차관은 이어 "한국이 수주한 것은 원자로 부분이 아니라 발전 설비이기 때문에 제재 대상이 아니며 미국의 입장에도 배치되지 않는다는 판단을 했다"고 부연했다.전문가들은 이번 원전 수주가 우리나라가 독자 개발한 수출형 원전 모델인 APR1400을 수출하는 것이 아니라 2차 건설사업(원전 부속건물 건설사업) 일부를 맡는 데 그친 점은 아쉽다고 보면서도 원전 생태계 부흥의 계기를 마련했다는 점은 높게 평가했다.정범진 경희대 원자력공학과 교수는 "APR1400을 수출한 것이었다면 원전 생태계 전반에 영향을 미치겠지만 2차 건설사업 수주이기 때문에 전체 산업에 미치는 영향은 미미할 것으로 본다"며 "다만 돈줄이 마른 원전 산업에 활력을 불어넣는 마중물 역할을 할 것으로 기대한다"고 말했다.한국이 수출한 UAE 바라카 원전 2호기[연합뉴스 자료사진]◇ "원전, 에너지 안보 핵심으로 떠올라…원전 '르네상스' 대비해야"정부는 러시아·우크라이나 전쟁으로 인한 에너지 수급 위기로 미국, 독일, 프랑스 등 주요 국가들이 신규 원전 건설과 기존 원전 연장 가동 계획을 발표함에 따라 해외 원전 시장 규모가 빠른 속도로 확대될 것으로 내다보고 있다.미국은 청정 전력에 원전을 포함시키며 상업 원전을 지원하기로 했고, 영국은 2050년까지 원전 8기를 건설한다는 계획이다.독일은 오는 12월 폐쇄 예정인 원전 3기의 가동 연장을 검토 중이며, 프랑스는 2035년까지 원전 6기의 건설을 추진 중이다.유럽연합(EU)은 원전을 탄소 감축을 위한 주요 수단으로 인정하면서 지난달 녹색분류체계(Taxonomy·택소노미)에 원전을 포함시킨 바 있다.특히 천연가스 등 에너지를 무기화하려는 국제사회의 움직임이 본격화되면서 원전이 에너지 안보의 핵심 산업으로 떠올랐다는 평가다.신재생에너지 전환 과정에서 액화천연가스(LNG) 발전을 늘렸지만 러시아가 유럽행(行) 가스 공급 중단을 예고한 데 이어 호주도 천연가스 수출 제한을 검토하면서 오히려 에너지 위기로 이어졌다는 것이다.이에 따라 일각에서는 앞으로 다가올 원전 '르네상스'에 대비해야 한다는 목소리도 나온다.정범진 교수는 "신규 원전 시장이 활성화되면서 원전 르네상스를 맞게 될 가능성이 큰 만큼 대규모 수출 시장이 열릴 때를 대비해야 한다"며 "2030년 원전 수출 10기 목표 달성 이후를 대비해야 한다는 것"이라고 조언했다.주한규 서울대 원자핵공학과 교수도 "세계 원전 시장이 확대되는 중이기 때문에 지금까지 거론되지 않은 국가에 대한 수출도 가능하다"며 "앞으로 탄소세가 본격적으로 추진되고 에너지 안보의 중요성이 강조되면서 원전의 수요가 더욱 늘어나게 될 것"이라고 전망했다.hee1@yna.co.kr(끝)[이 시각 많이 본 기사]☞ 호주 뒤덮은 토끼 2억마리…"160년전 외래종 24마리가 번식"☞ 지구급 행성 전체가 깊은 대양으로 덮인 '바다 행성' 후보 관측☞ 차유람 남편 "女4인방이면 끝장"…배현진 나경원 "부적절·불쾌"☞ 또 중국산 깻잎…담배꽁초 나오더니 이번엔 '으적' 모래알 범벅☞ '장애인 아버지 폭행살해' 前 권투 국대 징역 10년 확정☞ '록키' 실베스터 스탤론, 76살 황혼이혼…결혼 25년만에 결별☞ "난 촉법소년" 편의점 난동에 SNS서 범행 자랑한 중학생 구속☞ '경찰관 꿈꾸던 20대' 미성년 성매매 알선 혐의로 나락에 빠져☞ "최소한으로만 일할래…" 밀레니얼 직장인 '조용한 사직' 돌풍▶제보는 카카오톡 okjebo▶연합뉴스 앱 지금 바로 다운받기~&lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt;</t>
+          <t>산업부 "체코·폴란드 수주 모멘텀 될 것…원전 생태계 활성화 기대""對러시아 제재도 고려해 수주…원자로 아닌 발전설비라 제재대상 아냐"전문가 "원전 부속건물 수주인 점 아쉬워…원전 '르네상스' 대비해야"한수원, 이집트 엘다바 원전 2차측 건설사업 수주[한수원 제공. 재판매 및 DB 금지](서울=연합뉴스) 권희원 기자 = 정부가 13년 만에 대규모 해외 원전 건설 프로젝트를 수주하면서 윤석열 정부가 출범 직후부터 약속한 '2030년까지 원전 10기 수출' 목표 달성에 속도가 붙을지 주목된다.25일 산업통상자원부에 따르면 한국수력원자력은 이날 이집트 카이로에서 러시아 국영 원전기업 로사톰의 원전건설 담당 자회사인 ASE JSC사(社)와 3조원 규모의 이집트 엘다바 원전 건설 프로젝트 수주 계약을 체결했다.산업부는 이번 이집트 원전 건설 프로젝트 수주가 윤석열 정부의 첫 원전 수출 성과인 동시에 향후 체코, 폴란드 원전 수주의 강력한 모멘텀이 될 것으로 평가하고 있다.이번 대규모 원전 사업 수주가 2009년 아랍에미리트(UAE) 바라카 원전 이후 13년 만이자 중동에 이어 아프리카 원전 시장 첫 진출이라는 데도 의미를 부여하고 있다.◇ 정부 "원전수출 정책 첫 가시적 성과…체코·폴란드 수주 모멘텀 될 것"이창양 산업부 장관은 "이번 엘다바 프로젝트 수주는 윤석열 정부의 강력한 원전 수출 정책과 연계된 첫 가시적인 성과"라며 "탈원전 폐기를 공식화하고 원전수출전략 추진위원회를 가동하는 등 원전 정책의 변화와 강력한 수출 추진 의지가 계약 성사에 기여한 것"이라고 밝혔다.이어 "체코, 폴란드 등 우리 원전의 우수성을 높이 평가하고 원전 협력을 타진하는 국가들이 많은 만큼 앞으로 우리가 가진 모든 역량을 총결집해 원전 수출이 새로운 국부를 창출하고 성장산업으로 커나갈 수 있도록 강력히 지원하겠다"고 강조했다.정부는 지난 몇 년간 '일감 절벽'으로 어려움을 겪어 온 원전 기자재·시공업체에 일감을 공급하며 원전산업 생태계에 활력을 불어넣을 수 있을 것으로 기대하고 있다.한수원과 국내 기자재 업체가 함께 이집트에 진출함으로써 신한울 3·4호기 등 국내 원전 건설 착수·발주가 본격화되기 전에 일감 창출의 마중물 역할을 하게 될 것이라는 얘기다.무엇보다 주요 원전 수출국으로 꼽히는 체코, 폴란드 등과의 협상 과정에서 이번 수주 실적이 유리하게 작용할 것으로 기대하고 있다.또한 아프리카 역내 중심국인 이집트가 최초로 시행하는 원전 사업에 참여하게 된 만큼 우리 기업들에 아프리카 원전 시장 진출 기회를 제공해 줄 수 있을 것으로 전망하고 있다.엘다바 원전 프로젝트[산업부 제공. 재판매 및 DB 금지]산업부는 또 100여개 이상의 기자재 업체로 구성된 탄탄한 원전 산업 공급망과 전 세계 최저 수준의 건설 단가를 바탕으로 우리나라의 원전 기술이 전 세계 발주처로부터 높은 평가를 받고 있다고 설명했다.한국의 원전 건설 단가는 ㎾(킬로와트)당 3천571달러 수준으로 중국(4천174달러), 미국(5천833달러), 러시아(6천250달러), 프랑스(7천931달러) 등에 비해 낮은 편이다.산업부는 이번 이집트 원전 건설 프로젝트의 주계약자가 러시아 국영 원자력에너지사인 로사톰의 자회사 'ASE'인 만큼 러시아에 대한 국제 제재와 미국의 입장까지 종합적으로 고려해 계약 체결을 추진했다고 설명했다.박일준 산업부 2차관은 출입기자단 대상 백브리핑에서 "돌발적인 전쟁으로 러시아에 대한 국제 제재가 시작되면서 이집트 원전 건설 사업이 정상적으로 이뤄질지에 대한 회의적 시각이 있었지만, 러시아·이집트·미국의 입장을 수시로 점검하면서 사업에 참여했다"고 설명했다.박 차관은 이어 "한국이 수주한 것은 원자로 부분이 아니라 발전 설비이기 때문에 제재 대상이 아니며 미국의 입장에도 배치되지 않는다는 판단을 했다"고 부연했다.전문가들은 이번 원전 수주가 우리나라가 독자 개발한 수출형 원전 모델인 APR1400을 수출하는 것이 아니라 2차 건설사업(원전 부속건물 건설사업) 일부를 맡는 데 그친 점은 아쉽다고 보면서도 원전 생태계 부흥의 계기를 마련했다는 점은 높게 평가했다.정범진 경희대 원자력공학과 교수는 "APR1400을 수출한 것이었다면 원전 생태계 전반에 영향을 미치겠지만 2차 건설사업 수주이기 때문에 전체 산업에 미치는 영향은 미미할 것으로 본다"며 "다만 돈줄이 마른 원전 산업에 활력을 불어넣는 마중물 역할을 할 것으로 기대한다"고 말했다.한국이 수출한 UAE 바라카 원전 2호기[연합뉴스 자료사진]◇ "원전, 에너지 안보 핵심으로 떠올라…원전 '르네상스' 대비해야"정부는 러시아·우크라이나 전쟁으로 인한 에너지 수급 위기로 미국, 독일, 프랑스 등 주요 국가들이 신규 원전 건설과 기존 원전 연장 가동 계획을 발표함에 따라 해외 원전 시장 규모가 빠른 속도로 확대될 것으로 내다보고 있다.미국은 청정 전력에 원전을 포함시키며 상업 원전을 지원하기로 했고, 영국은 2050년까지 원전 8기를 건설한다는 계획이다.독일은 오는 12월 폐쇄 예정인 원전 3기의 가동 연장을 검토 중이며, 프랑스는 2035년까지 원전 6기의 건설을 추진 중이다.유럽연합(EU)은 원전을 탄소 감축을 위한 주요 수단으로 인정하면서 지난달 녹색분류체계(Taxonomy·택소노미)에 원전을 포함시킨 바 있다.특히 천연가스 등 에너지를 무기화하려는 국제사회의 움직임이 본격화되면서 원전이 에너지 안보의 핵심 산업으로 떠올랐다는 평가다.신재생에너지 전환 과정에서 액화천연가스(LNG) 발전을 늘렸지만 러시아가 유럽행(行) 가스 공급 중단을 예고한 데 이어 호주도 천연가스 수출 제한을 검토하면서 오히려 에너지 위기로 이어졌다는 것이다.이에 따라 일각에서는 앞으로 다가올 원전 '르네상스'에 대비해야 한다는 목소리도 나온다.정범진 교수는 "신규 원전 시장이 활성화되면서 원전 르네상스를 맞게 될 가능성이 큰 만큼 대규모 수출 시장이 열릴 때를 대비해야 한다"며 "2030년 원전 수출 10기 목표 달성 이후를 대비해야 한다는 것"이라고 조언했다.주한규 서울대 원자핵공학과 교수도 "세계 원전 시장이 확대되는 중이기 때문에 지금까지 거론되지 않은 국가에 대한 수출도 가능하다"며 "앞으로 탄소세가 본격적으로 추진되고 에너지 안보의 중요성이 강조되면서 원전의 수요가 더욱 늘어나게 될 것"이라고 전망했다.hee1@yna.co.kr(끝)[이 시각 많이 본 기사]☞ 전북 전주서 중년부부 숨진 채 발견…경찰 "아내 목에 상처"☞ 손잡이 달린 컵라면 나와…농심 "카구리에 우선 도입·확대 검토"☞ 홍준표 이어 尹 '40년 지기'도…"김여사 팬클럽 즉각 해체해야"☞ '술마시고 화가나' 동거남과 이별 후 집에 불 지른 20대☞ 경찰, 가수 남태현·방송인 서민재 마약 혐의 입건☞ 이준석, 與연찬회에 "얼평에 박수…그게 딱 당 상황"☞ '나 홀로 집에' 케빈 형 역할 배우, 성폭행 혐의로 조사받아☞ 방정오 前TV조선 대표, '장자연 보도' MBC 상대 손배소 일부승소☞ 박지원, 검찰 수사에 "나는 신속히 하고 도이치모터스는 늦어져"▶제보는 카카오톡 okjebo▶연합뉴스 앱 지금 바로 다운받기~&lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt;</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"삼성 크게 화났다" 쿠팡발 '새 폴더블폰' 소동, 무슨 일</t>
+          <t>쿠팡 난리났다…'신형 폴더블폰' 황당한 배송 소동, 무슨 일</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>쿠팡을 통해 삼성전자의 새 폴더블 폰을 사전예약 구매한 소비자들 일부가 '빈 박스'를 받았다고 호소하고 있다.[홍승희 기자·쿠팡 구매평][헤럴드경제=홍승희 기자] “예약판매 수 ‘역대급’이라던 삼성 새 접는폰…쿠팡이 찬물?”역대급 사전예약 판매량을 달성하며 신기록을 갈아치운 삼성전자의 새 폴더블폰(접는폰)에 찬물을 끼얹는 일이 발생했다. 최근 쿠팡에서 갤럭시Z플립4를 구매했다가 원인 모를 사건으로 ‘빈 박스’를 받았다는 고객들이 속출하고 있다.25일 쿠팡에는 “갤럭시Z플립4를 쿠팡해서 사전예약 후 배송받았는데 빈 박스가 왔다”는 구매평이 이어지고 있다. 한 소비자 A씨는 “빈 박스로 와서 어이가 없다”며 “환불처리 해줄테니 다시 구매하라는 답변을 받았다”고 썼다. 같은 일을 경험한 또 다른 소비자는 “검색해보니 오래 전부터 이런 일이 비일비재한 것 같은데 개선을 안 하는 건지 못 하는 건지(모르겠다)”고 말했다.쿠팡은 해당 사건의 경위를 자체적으로 조사한 후 경찰 수사를 의뢰할 계획이다. 일부 소비자는 박스 밑단의 쿠팡 테이프가 잘린 흔적이 일부 발견됐다고 증언했다. 이에 따라 발송 및 배송 과정에서 사건이 발생한 것 아니냐는 추측이 제기되고 있다.삼성전자 갤럭시Z플립4. 김민지 기자쿠팡의 갤럭시Z플립4 구매평에는 이같이 제품은 없고 비밀만 담긴 '빈 박스'를 받았다는 소비자들이 속출하고 있다.[출처 쿠팡]피해를 본 소비자들은 하나같이 쿠팡이 교환이 아닌 ‘환불’ 정책만 고수한다며 불만을 제기하고 있다. 삼성전자는 사전예약을 할 시 ▷13% 할인 ▷카드 무이자 할부 ▷사은품 등의 혜택을 제공하는데, 쿠팡의 안내대로 환불 이후 제품을 재구매하면 현재는 사전예약 기간이 끝나 다시 주문해도 이 혜택을 받을 수 없기 때문이다. 같은 일을 겪은 소비자 C씨는 “사전예약기간에 구매한 고객들이 정당한 교환 절차를 밟을 수 있도록 처리해달라”며 “구매할 당시 가격과 혜택이 전혀 다른데 재구매를 하라니 황당하다”고 주장했다.하지만 쿠팡은 해당 ‘교환’ 정책에 대해선 말을 아끼고 있다. 쿠팡 관계자는 “신속한 조사를 통해 사실을 파악하고 수사 의로 등의 강력한 조치를 취할 예정이다. 피해를 입은 고객에 대해서는 빠르게 환불을 포함한 피해보상 조치가 진행 중”이라고 설명했다. 다만 소비자들이 요구하고 있는 교환 정책을 실행할지 여부에 대해서는 답변을 얻을 수 없었다.한편 삼성전자는 갤럭시Z폴드4·플립4 사전 판매가 100만대에 육박한다고 밝혔다. 이는 전작 갤럭시Z폴드3·플립3 92만대를 훌쩍 뛰어넘은 신기록이다. 새 폴더블폰에 대한 기대 이상의 호응으로 고무돼 있던 삼성측도 이번 사태에 대해 매우 불쾌해 하고 있는 것으로 전해진다. hss@heraldcorp.com[베스트 클릭! 헤럴드 경제 얼리어답터 뉴스] ▶ “결혼하고 싶은 솔로 100만원씩 줬더니” 400억원 ‘떼돈’ 번 회사 ▶ 인형 뽑기방 대변봤던 여성 죄목이 재물손괴죄? ▶ “넷플릭스보다 비싸, 누가 가?” 티켓값 올린 영화관, 망할 줄 알았는데 ▶ 文 “돌아만 봐도 복받을 것 같다” 빗속 뚫고 찾은 ‘이곳’ ▶ 대학교수 된 93년생 유튜버…‘구독자 23만’ 그녀 ▶ 깻잎에 모래가 '양념'처럼...중국산 깻잎김치 담배꽁초 이어 또 ▶ “강유미가 소개팅시켜 줬더니” 난리난 ‘이 회사’ 1천만명 몰렸다 ▶ “김우빈 지겹게 나온다 싶더니” 수백억 펑펑 ‘이곳’ 이런일이 ▶ ‘사망선고’ 받았다가 장례식장서 눈뜬 3살 아이…결국 영면 ▶ [단독] 20년 좌절 역사 마침표…은마아파트 재건축 도계위 소위 통과 [부동산360]Copyright ⓒ 헤럴드경제 All Rights Reserved.</t>
+          <t>쿠팡을 통해 삼성전자의 새 폴더블폰을 사전예약 구매한 소비자 일부가 '빈 박스'를 받았다고 호소하고 있다. 홍승희 기자 [쿠팡 구매평 캡처][헤럴드경제=홍승희 기자] “예약판매 수 ‘역대급’이라던 신형 폴더블폰… 쿠팡이 찬물?”나오자마자 역대급 사전 판매량을 기록한 신형 폴더블폰(접는폰)에 찬물을 끼얹는 일이 발생했다. 최근 쿠팡에서 갤럭시Z플립4를 구매했다가 원인 모를 사건으로 ‘빈 박스’를 받았다는 고객들이 속출하고 있다.25일 쿠팡에는 “갤럭시Z플립4를 쿠팡에서 사전예약 후 배송받았는데 빈 박스가 왔다”는 구매평이 이어지고 있다. 한 소비자 A씨는 “빈 박스로 와서 어이가 없다”며 “환불 처리해줄 테니 다시 구매하라는 답변을 받았다”고 썼다. 같은 일을 경험한 또 다른 소비자는 “검색해보니 오래전부터 이런 일이 비일비재한 것 같은데 개선을 안 하는 건지, 못 하는 건지(모르겠다)”라고 말했다.쿠팡은 해당 사건의 경위를 자체적으로 조사한 후 경찰 수사를 의뢰할 계획이다. 일부 소비자는 박스 밑단의 쿠팡 테이프가 잘린 흔적이 일부 발견됐다고 증언했다. 이에 따라 발송 및 배송 과정에서 사건이 발생한 것 아니냐는 추측이 제기되고 있다.삼성전자 갤럭시Z플립4. 김민지 기자쿠팡의 갤럭시Z플립4 구매평에는 이같이 제품은 없고 비밀만 담긴 '빈 박스'를 받았다는 소비자들이 속출하고 있다. [쿠팡]피해를 본 소비자들은 하나같이 쿠팡이 교환이 아닌 ‘환불’정책만 고수한다며 불만을 제기하고 있다. 삼성전자는 사전예약을 할 때 ▷13% 할인 ▷카드 무이자할부 ▷사은품 등의 혜택을 제공하는데 쿠팡의 안내대로 환불 이후 제품을 재구매하면 현재는 사전예약기간이 끝나 다시 주문해도 이 혜택을 받을 수 없기 때문이다. 같은 일을 겪은 소비자 C씨는 “사전예약기간에 구매한 고객들이 정당한 교환 절차를 밟을 수 있도록 처리해 달라”며 “구매할 당시 가격과 혜택이 전혀 다른데 재구매를 하라니 황당하다”고 주장했다.하지만 쿠팡은 해당 ‘교환’정책에 대해선 말을 아끼고 있다. 쿠팡 관계자는 “신속한 조사를 통해 사실을 파악하고 수사 의뢰 등의 강력한 조치를 취할 예정이다. 피해를 입은 고객에 대해서는 빠르게 환불을 포함한 피해보상 조치가 진행 중”이라고 설명했다. 다만 소비자들이 요구하고 있는 교환정책을 실행할지에 대해서는 답변을 얻을 수 없었다.한편 삼성전자는 갤럭시Z폴드4·플립4 사전판매가 100만대에 육박한다고 밝혔다. 이는 전작 갤럭시Z폴드3·플립3 92만대를 훌쩍 뛰어넘은 신기록이다. 새 폴더블폰에 대한 기대 이상의 호응으로 고무돼 있던 삼성 측도 이번 사태에 대해 매우 불쾌해하고 있는 것으로 전해진다. hss@heraldcorp.com[베스트 클릭! 헤럴드 경제 얼리어답터 뉴스] ▶ [르포] 태백 고랭지 배추밭 3분1이 쑥대밭됐다 ▶ “결혼하고 싶은 솔로 100만원씩 줬더니” 400억원 ‘떼돈’ 번 회사 ▶ 주인 살린 ‘복순이’, 코 베이는 학대 뒤 보신탕집에 버려졌다 ▶ ‘사망선고’ 받았다가 장례식장서 눈뜬 3살 아이…결국 영면 ▶ 대학교수 된 93년생 유튜버…‘구독자 23만’ 그녀 ▶ 인형 뽑기방 대변봤던 여성 죄목이 재물손괴죄? ▶ “넷플릭스보다 비싸, 누가 가?” 티켓값 올린 영화관, 망할 줄 알았는데 ▶ 文 “돌아만 봐도 복받을 것 같다” 빗속 뚫고 찾은 ‘이곳’ ▶ 깻잎에 모래가 '양념'처럼...중국산 깻잎김치 담배꽁초 이어 또 ▶ “강유미가 소개팅시켜 줬더니” 난리난 ‘이 회사’ 1천만명 몰렸다Copyright ⓒ 헤럴드경제 All Rights Reserved.</t>
         </is>
       </c>
     </row>

--- a/issuedot-server/static/2022-08-25.xlsx
+++ b/issuedot-server/static/2022-08-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>본문</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>요약문</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>주요단어</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>단어설명</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +501,13 @@
           <t>한동훈 법무부장관.   사진=쿠키DB법무부가 지난 6월 한동훈 장관의 미국 출장경비 내용을 밝히라는 시민단체 대표의 정보공개 요청을 거부했다. 법무부는 “국가의 중대한 이익을 해칠 우려가 있다”는 이유를 들었다. 시민단체 대표는 추가적인 법적 대응을 예고하고 있지만, 이전 정부에서도 관련 사항에 대해 정보공개를 한 적이 없음에도 마구잡이식으로 공개하라는 요구는 어떠한 정치적 의도가 담긴 게 아니냐는 비판이 나온다.쿠키뉴스가 24일 국회 의회 외교 시스템에 공개된 자료를 분석한 결과 올해 출장 목적으로 미국을 방문한 국회의원 1인당 평균 출장 비용(공식 동행자 포함)은 1433만원 가량이다. 한동훈 장관을 포함 4인이 쓴 출장 비용과 단순 비교 할 때 한 장관 일행의 미국 출장 지출이 더 적었다. 특히 한 장관과 비슷한 시기 미국, 캐나다 출장을 다녀온 박병석 전 국회의장 일행의 출장 경비는 1억4000만원 가량으로 한 장관 일행 경비보다 약 3배나 많다.또 이전 문재인 정부 시절 법무장관을 지낸 박범계 전 장관(현 의원)은 지난해 11월 수행원 6명과 함께 7박 9일간 ‘UN 대테러실 MOU(양해각서) 체결, 통일 관련 전문가 대담 등’을 명목으로 미국 출장을 떠났다. 이때 지출된 출장비용은 7805만원으로 한 장관의 출장비용 규모와도 크게 다르지 않다. 오히려 박 전 장관과 법무부 간부들은 지난해 11월부터 올해 1월까지 총 10차례에 걸친 잦은 국외 출장으로 ‘외유성 출장’이 아니냐는 언론의 비판을 받기도 했다.그간 야당에서 한 장관의 미국 출장과 지출 비용을 두고 국민 혈세가 들었음에도 느슨한 일정을 소화했다는 식의 공세를 펼쳐왔는데 상당히 무색해지는 대목이다.자료=국외출장연수정보시스템, 열린국회정보 의회외교활동 정보 취합·정리한 네티즌은 23일 자신의 SNS에 박병석 전 국회의장을 비롯한 네 명의 국회의원이 미국, 캐나다 출장을 다녀온 뒤 제출한 보고서 자료를 첨부하면서 “한동훈 장관의 출장비 4840만원을 추궁하는 건 개인적으로 좀스럽다고 생각한다”고 밝히기도 했다.그는 “한 장관 일행 총 4명 7박9일 미국 일정에 4840만원 정도면 다른 사례와 비교할 때 준수하다”며 “박병석·조응천·엄태영·소병철 의원 및 수행원 3명 총 7명이 지난 6월 7박 9일간 캐나다·미국 방문하고서 1억4376만원 썼다”고 지적했다.사진=페이스북 갈무리한 장관의 미국 출장 세부 내역에 대해 정보공개신청을 한 하승수 공익법률센터 농본 대표(변호사)는 법무부의 비공개 답변에 대해 법적 대응을 예고했다. 하 대표는 페이스북을 통해 “요즘 좀 바쁘지만 시간을 내서 한동훈 장관의 미국출장비 세부집행내역과 지출증빙서류 비공개에 대해서는 법적 대응을 하겠다. 나쁜 선례를 만들어서는 안 된다”고 말했다.반면 시민단체 내에서도 비판의 목소리가 나오고 있다. 합리적인 의심의 범위에서 이뤄지는 공적 문제 제기가 아니므로 이를 지속한다면 소모성 논쟁에 지나지 않다는 주장이다. 김경율 경제민주주의21 대표(회계사)는 24일 쿠키뉴스와 통화에서 “외유의 증거 또는 증거가 아니라도 정황이라도 있으면 당장 나라도 문제 제기와 동시에 정보 청구를 할 텐데 배포된 일정상 정보를 아무리 보수적으로 봐도 법무부 장관이 출장 가서 놀았다는 증거나 정황은 보이지 않는다”고 말했다.이어 김 대표는 “그냥 무작정 찔러보자는 식의 문제 제기는 정말 소모적이고 불필요하기에 지양돼야 한다”며 “보호돼야 할 가치가 분명 있고, 아울러 문제 제기할 경우라도 합리적인 추론의 범위에서 합리적인 의심을 바탕으로 이뤄져야 사회적 비용 낭비를 줄일 수 있다”고 강조했다.정치평론가는 어디서 잠을 잤고 누구와 만나 무엇을 먹었는지까지 정보 공개하라는 요구는 적절치 않고 무리한 걸로 봤다.신율 명지대 정치외교학과 교수는 본지와 인터뷰에서 “일국의 장관이 해외 출장에 가서 어디서 먹고 어디서 잤는지 등 세부 동선까지 공개하라는 것은 결코 어렵다”고 말했다.신 교수는 “구체적으로 어디를 갔고, 어떤 명목으로 썼느냐까지 따지고 들면 국가 안보적으로 보완이 필요한 방문 목적이 의도치 않게 노출될 수 있고, 상대 국가에 대해서 결례로 외교적 분쟁까지 일어날 수 있다”며 “정부가 정보공개 불가 통보를 한 것도 그 차원일 것”이라고 부연했다.또 일각에서는 한동훈 장관에 대한 이미지 흠집 내기 또는 의혹 프레임 만들기가 아니냐는 지적도 잇따른다. 익명을 요구한 한 여권 관계자는 “객관적으로 공개된 자료들만 보더라도 문제 삼을 게 없는데도 막연히 의심만 하면서 정보를 내놓으라고 하면 이전 정부의 자료들도 몽땅 공개해야 하는 게 마땅치 않겠느냐”며 “도를 넘은 흠집 내기 프레임과 정쟁을 멈추고 민생에 더 집중해야 한다”고 말했다.황인성 기자 his1104@kukinews.com</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>법무부가 지난 6월 한동훈 장관의 미국 출장경비 내용을 밝히라는 시민단체 대표의 정보공개 요청을 거부한 것에 대해 시민단체 대표는 법적 대응을 예고하고 있지만, 이전 정부에서도 관련 사항에 대해 정보공개를 한 적이 없음에도 마구잡이식으로 공개하라는 요구는 어떠한 정치적 의도가 담긴 게 아니냐는 비판이 나오고 있다.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,6 +535,13 @@
           <t>보훈처, 국토부 등과 협의 중…"민간부터 도입해 확산 기대"부친 6·25참전한 베스트웨스턴 회장, 국내호텔에 도입 검토키로미국 공공·민간주차장 곳곳에 설치된 참전용사 주차구역 표지판  [국가보훈처 제공. 재판매 및 DB 금지](서울=연합뉴스) 하채림 기자 = 공공주차장과 대형마트, 호텔 등에 참전용사 차량 전용 주차구역이 생길 전망이다.국가보훈처 관계자는 25일 "참전용사 주차구역 운영제도를 국내 도입하는 방안을 국토교통부 등 관계부처와 협의하고 있다"고 밝혔다.미국의 공공 주차구역과 대형마트, 숙박시설에 일반화된 '참전용사 주차구역' 제도를 국내에 도입하는 방안을 추진한다는 것이다.보훈처 관계자는 "지방자치단체에서는 조례로 참전용사 주차구역을 운영할 수 있고 대형마트나 호텔 등은 언제라도 자체적으로 운영할 수 있어 적극적으로 추진하고 있다"고 설명했다. 박민식 보훈처장은 원희룡 국토부장관, 각 자치단체장에게 참전용사 주차구역 운영의 취지를 설명하고 협조를 요청할 계획이다. 아울러 참전용사 예우 차원에서 민간 부문에서 선제적으로 도입하면 자연스럽게 확산할 수 있을 것으로 보훈처는 기대했다. 이와 관련, 전날 보훈처로부터 '평화의 사도' 메달을 받은 세계적 호텔체인 베스트웨스턴호텔앤드리조트의 존 켈리 회장은 한국 내 호텔에 참전용사 주차구역 도입을 적극적으로 검토하기로 했다.미국 유엔참전용사 평화의 사도 메달 증정식(서울=연합뉴스) 박민식 국가보훈처장(오른쪽)이 지난 24일 오전 용산구 서울지방보훈청에서 열린 미 유엔참전용사 평화의 사도 메달 증정식에서 미국 해병대 한국전 참전자 도널드 켈리의 자녀 존 켈리 베스트 웨스턴 호텔&amp;리조트 이사회 회장에게 평화의 사도 메달을 증정 후 기념 촬영하고 있다. 2022.8.24 [보훈처 제공. 재판매 및 DB 금지] photo@yna.co.kr박 처장으로부터 '한국에 참전용사 주차구역 제도가 없는데 베스트웨스턴호텔이 이를 운영하면 어떻겠느냐'는 제안을 받은 켈리 회장은 흔쾌히 검토 의사를 밝혔다고 보훈처는 전했다. 켈리 회장의 부친 도널드 H. 켈리(92) 씨는 6·25 참전용사로 인천상륙작전과 장진호 전투에 참가했다. 켈리 회장은 업무차 방한 중에 아버지를 대신해 평화의 사도 메달을 받았다. 미국의 참전용사 주차구역에는 '참전용사 주차', '참전용사 주차 전용' '참전용사 배려 주차구역' 등으로 쓰인 표지판에 '복무에 감사합니다', '복무자를 예우합니다' 같은 문구가 기재돼 있다. 보훈처 관계자는 "참전용사에 대한 예우가 발달한 미국에서는 주마다 제도의 차이는 있지만 공공·민간 시설 곳곳에서 참전용사 전용 주차구역 표지를 쉽게 볼 수 있다"며 "일상 속 작은 변화가 보훈문화를 확산하는 좋은 계기가 될 것"이라고 말했다. tree@yna.co.kr(끝)[이 시각 많이 본 기사]☞ '록키' 실베스터 스탤론, 76살 황혼이혼…결혼 25년만에 결별☞ 반찬가게 깻잎 먹는데 '으적'…이번엔 모래 범벅 중국산☞ '기러기, 토마토' 대신 'Kayak, deed'…우영우 영어 더빙은☞ 경찰, '뮤직뱅크' 임영웅 점수 조작 의혹 석달째 조사 중☞ 슈가 출신 아유미, 10월 비연예인과 결혼☞ '미래식량' 식용곤충으로 영양가 높은 고기향 조미료 만든다☞ '불닭게티' '카구리' '불새라면'…먹어 봤나요?☞ 尹 대외비 일정 유출한 '건희사랑'…홍준표 "팬카페 해산해야"☞ 우주에는 소리가 없다?…'블랙홀 소리' 사상 첫 공개▶제보는 카카오톡 okjebo▶연합뉴스 앱 지금 바로 다운받기~&lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt;</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>미국의 공공 주차구역과 대형마트, 숙박시설에 일반화된 '참전용사 주차구역' 제도를 국내 도입하는 방안을 국토교통부 등 관계부처와 협의하고 있다고 밝혔다.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -522,24 +551,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>경제</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>이준석 이젠 김건희 여사까지 저격…건진법사 인사개입 의혹 제기</t>
+          <t>[OK!제보] 반찬가게 깻잎 먹는데 '으적'…이번엔 모래 범벅 중국산</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220825n04679?mid=n1006</t>
+          <t>https://news.nate.com/view/20220825n03106?mid=n1006</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[서울=뉴시스] 국회사진기자단 = 이준석 국민의힘 전 대표가 지난 17일 오후 서울 양천구 서울남부지방법원에서 열린 국민의힘 비상대책위원회 전환 및 비대위원장 효력정지 가처분 심문을 마친 뒤 기자들의 질문에 답하고 있다. 2022.08.17. /사진=뉴시스 [파이낸셜뉴스]  법원에 제출한 자필 탄원서에서 윤석열 대통령을 ‘신군부’에 비유한 이준석 국민의힘 전 대표가 이번에는 김건희 여사로까지 공격 범위를 넓히고 있다. 여권 일각에서는 ‘이준석 리스크’가 현실화되었다는 지적도 나오고 있다.  이 전 대표는 24일 자신의 페이스북에 “여당에 진짜 보수 정권을 걱정하는 사람들이 있다면 윤 정부에서 얼마나 위험한 일이 벌어지는지 따져 보고 바로잡아야 한다”며 “이미 우려스러운 인사와 수의계약, 수사개입 정도는 일상적인 뉴스로 나오고 있다. 그렇다고 면역이 생긴 건 아니다”라고 말했다.  이 전 대표가 언급한 ‘인사’는 건진 법사 전 모 씨가 대통령 부부와의 친분을 이용해 인사에 개입하려 시도했다는 의혹, ‘수의계약’은 김 여사와 친분이 있는 인테리어 업체가 대통령 관저 리모델링 공사를 수의계약으로 따냈다는 의혹을 의미하는 것으로 보인다. ‘수사개입’은 윤핵관(윤석열 대통령 측 핵심 관계자)이 이 전 대표의 성상납 의혹 경찰 수사에 압력을 가하고 있다는 의혹을 의미하는 것으로 풀이된다.  이 전 대표가 전선을 넓혀 윤 대통령 뿐 아니라 김 여사까지 비판하기 시작한 것을 두고 여권 일각에서는 ‘이준석 리스크’가 현실화 된 것이 아니냐는 분석도 나오고 있다.  친이준석계로 꼽혔던 정미경 전 의원은 24일 BBS라디오 ‘전영신의 아침저널’과의 인터뷰에서 이 전 대표가 윤 대통령을 ‘절대자’로 지칭하며 ‘신군부에’ 비유한 것과 관련해 “윤석열 정부가 신군부라면 지금 이 전 대표가 이렇게 떠들도록 놔두지도 않을 것 같다. 비유가 맞지도 않다”고 지적했다.  정 전 의원은 “저도 계속 얘기하고 있고 홍준표 대구시장도 얘기하고 있는데, 이제 그만 자중하고 진짜 멈춰야 한다”며 “국민의 시선이 걱정된다”고 우려를 드러냈다.  같은날 김병준 전 대통령직인수위원회 지역균형발전특위 위원장은 김기현 의원 주도의 국민의힘 공부모임 ‘혁신24 새로운미래’ 강연에 참석해 “(윤 대통령을) 받쳐주지 못하는 내각, 대통령실, 정당은 뭘 하는지 모르겠다”며 “이대로 가면 우리는 5년 뒤에 진다”고 경고하기도 했다.  김 전 위원장은 모임 이후 기자들과 만난 자리에서 이준석 전 대표가 법원에 제출한 자필 탄원서를 통해 윤 대통령과 윤핵관을 비판한 데 대해 “개인으로서 억울한 게 있다고 생각되면 그렇게 이야기할 수도 있는 것”이라면서도 “거기에 대해서 국민이 어떻게 생각하고 당이 어떻게 생각하고 하는 것은 또 다른 문제...”라고 답했다. #이준석 #윤석열 #김건희 #신군부 #건진법사  [파이낸셜뉴스 핫뉴스] → 간호사에 딱 걸린 사지마비 환자의 반전 실체 "밤에 혼자.."→ '41억원' 보이스피싱 당한 40대 의사, 과정 보니... '소름'→ 한문철 "저를 이기실 수 있겠어요?" 배달기사와 시비→ 이주노, 서태지와 불화설에 한마디 "서태지 어머니와..."→ 제주 비양도서 60대 남성 숨진 채 발견, 시신 살펴보니...</t>
-        </is>
-      </c>
+          <t>며칠 전 담배꽁초 이어 깻잎서 또 이물질중국산 깻잎 반찬가게 점유율 최대 90% 추정수입 농산물 더 철저한 위생관리 필요모래 범벅 중국산 깻잎깻잎 위의 양념같은 가루들이 모두 모래라고 한다. 제보자 A씨 제공. 재판매 및 DB 금지.(서울=연합뉴스) 김대호 기자 = 동네 반찬가게에서 모래가 양념처럼 범벅이 된 깻잎이 팔려 밥상머리 안전이 다시 도마 위에 오르고 있다.이번에 문제가 된 깻잎도 며칠 전 담배꽁초가 나온 깻잎과 같은 중국산으로 확인됐다.경기도 시흥시에 사는 A씨는 지난 15일 집 앞 반찬가게에서 구매한 깻잎장아찌를 먹는데 으적거리는 느낌이 들어 뱉어내고 다시 먹는데 또 으적거려 자세히 보았더니 모래가 덮여있었다고 한다.A씨가 촬영한 깻잎 사진을 보면 모래는 빨갛게 고춧가루 양념이 배어있었는데 밥알만 한 모래 알도 많아 육안으로도 금방 모래임을 알 수 있었다.A씨가 구매한 깻잎은 중국에서 원재료를 수입한 후 국내 업체가 반찬으로 제조, 유통업체를 통해 전국 반찬가게로 판매된 것으로 확인됐다.유통업체들은 깻잎의 원재료 채취와 가공 등에 인건비가 워낙 많이 들어 중국산 의존도가 높은데, 국내 반찬가게 점유율이 최대 90%에 달할 수 있다고 추정했다.반찬가게는 깻잎 금액을 환불하고 추가 보상을 해주려 했으나, A씨는 보상을 거부하고 식품의약품안전처에 신고했다. 식약처는 반찬가게와 제조업체를 차례로 조사할 예정이라고 A씨에게 알려왔다.모래 범벅 중국산 깻잎깻잎 위의 양념같은 가루들이 모두 모래라고 한다. 제보자 A씨 제공. 재판매 및 DB 금지.깻잎 제조업체는 중국에서 깻잎을 채취한 후 세척, 절임, 포장 등 1차 가공 과정이나 반찬가게에서 대용량의 깻잎을 소량으로 나누는 과정에서 이물질이 들어갔을 가능성이 있다고 밝혔다.또 한국에서 중국산 깻잎 원재료를 반찬으로 가공하기 전 다시 세척하는데, 이때 젖은 깻잎이 달라붙어 떨어지지 않으면 이물질을 걸러내지 못할 수 있다고 업체는 설명했다.업체 관계자는 "위생관리를 철저히 하는데 이물질이 나와 놀랐다. 소비자가 거짓을 말하지 않았다면 유통, 제조 과정에서 이물질이 들어갔다고 인정할 수밖에 없다. 농산물은 흙과 같은 이물질 위험이 상존한다"고 말했다.깻잎을 판매한 반찬가게도 충격을 금치 못하고 위생관리에 더 노력하고 있다.A씨는 "아무리 깻잎을 엉터리로 씻었다고 해도 흙이 양념처럼 가득 올려져 있는 것은 이해되지 않는다. 며칠 전 중국산 깻잎에서 담배가 나왔는데 모래까지 나와 당국의 위생 관리에 경각심을 제고하기 위해 제보하게 됐다"고 말했다.daeho@yna.co.kr기사제보나 문의는 카카오톡 okjebo(끝)[이 시각 많이 본 기사]☞ 하태경 "尹대통령, 침묵하면 '이준석 쫓아낸 것 주도' 시인"☞ '록키' 실베스터 스탤론, 76살 황혼이혼…결혼 25년만에 결별☞ 코비 시신사진 돌려본 소방·경찰에 214억원 배상 평결☞ 공수처장 "김건희 여사 수사 검토"…김여사, 수해 복구 봉사☞ 반찬가게 깻잎 먹는데 '으적'…이번엔 모래 범벅 중국산☞ 핀란드 총리, 파티 논란에 "나도 사람…가끔 즐거움 원해" 울컥☞ '기러기, 토마토' 대신 'Kayak, deed'…우영우 영어 더빙은☞ '장애인 아버지 폭행살해' 前 권투 국대 징역 10년 확정☞ '미래식량' 식용곤충으로 영양가 높은 고기향 조미료 만든다▶제보는 카카오톡 okjebo▶연합뉴스 앱 지금 바로 다운받기~&lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt;</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>지난 15일 반찬가게에서 중국산 깻잎이 팔려 밥상머리 안전이 다시 도마 위에 오르고 있다.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -549,22 +585,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>경제</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>여가부 폐지 밑그림은 밀실에서…간담회 5번 했다며 회의록 없어</t>
+          <t>원전수출 첫 성과 낸 尹정부…중동 이어 아프리카 시장에도 진출</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220825n02353?mid=n1006</t>
+          <t>https://news.nate.com/view/20220825n34322?mid=n1006</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>'자유로운 발언 보장' 이유로 기록 안 남기고 참석자도 비공개김현숙 여성가족부 장관(서울=연합뉴스) 하사헌 기자 = 김현숙 여성가족부 장관이 18일 오전 서울 여의도 국회에서 열린 여성가족위원회 전체회의에서 2021회계연도 결산보고를 하고 있다. 2022.8.18 [국회사진기자단] toadboy@yna.co.kr(서울=연합뉴스) 계승현 기자 = 여성가족부가 부처 폐지안 마련을 위해 2개월간 5차례의 간담회를 열면서 공식 기록을 남기지 않고 간담회에 참석한 전문가들의 명단도 공개하지 않고 있다. 윤석열 대통령의 공약인 '여가부 폐지'에 대한 구체적인 계획이 감감무소식인데다가 의견수렴 과정도 불투명하다는 비판이 불가피할 것으로 보인다.25일 더불어민주당 유정주 의원실이 여가부에서 받은 조직개편 간담회 관련 자료를 보면 여가부는 지난 6월 17일부터 장·차관 주재로 전문가 초청 간담회를 5차례 개최했으나 회의록을 작성하지 않고 있다고 밝혔다. 새 정부 출범 및 김현숙 장관 취임 후 100일이 지났는데도 부처 폐지나 개편 밑그림이 나오지 않고 있는 가운데, 조직개편을 논의하는 과정에 대한 기록도 남기지 않은 것이다. 공공기록물 관리에 관한 법률 시행령 18조를 보면 '주요 정책의 심의 또는 의견조정을 목적으로 차관급 이상의 주요 직위자가 참석하는 회의'나 '그 밖에 회의록 작성이 필요하다고 인정되는 주요 회의' 등에 대해서는 회의록을 작성해야 한다.회의록에는 회의의 명칭, 개최기관, 일시 및 장소, 참석자 및 배석자 명단, 진행 순서, 상정 안건, 발언 요지, 결정 사항 및 표결 내용에 관한 사항이 포함돼야 한다. 그러나 여가부가 만든 자료에는 매 간담회의 주요 내용이 한 문장으로 정리돼있는데 그쳤고, 속기록은 없었다. 게다가 매번 교수, 연구원, 변호사, 기업인, 지자체 공무원, 전 언론인 등이 6∼7명씩 참석했으나, 참가자의 성명은 성만 드러내고 이름은 가린 채 의원실에 제출됐다. 회의에는 김현숙 장관과 이기순 차관이 참석했으며, 김 장관은 지난 18일 국회 여성가족위원회 질의에서 "직접 주재한 회의가 총 5차례"라고 밝히기도 했다.여가부 관계자는 회의록을 남기지 않은 것에 대해 간담회에서 참석자의 자유로운 발언을 보장하기 위해서라고 설명했다.또한 "주요 정책을 심의해서 결정하거나 의견을 조정하는 회의체가 아니고, 전문가와 정책 당사자들의 의견을 듣는 전문가 간담회기 때문에 회의록 의무 작성 대상이 아니다"라고 덧붙였다. 유정주 의원은 "부처 존립을 논의하기 위한 자리가 회의록 하나 없이 진행된 것 자체가 졸속이자 주먹구구식임을 보여주는 것"이라며 "답이 정해졌기 때문에 과정이야 어떤 식이든 상관없다는 것인가"라고 비판했다. key@yna.co.kr(끝)[이 시각 많이 본 기사]☞ 슈가 출신 아유미, 10월 비연예인과 결혼☞ 경찰, '뮤직뱅크' 임영웅 점수 조작 의혹 석달째 조사 중☞ '록키' 실베스터 스탤론, 76살 황혼이혼…결혼 25년만에 결별☞ 尹 대외비 일정 유출한 '건희사랑'…홍준표 "팬카페 해산해야"☞ '기러기, 토마토' 대신 'Kayak, deed'…우영우 영어 더빙은☞ '밥 짓고 빨래해라?'…새마을금고서 황당한 여직원 갑질 논란☞ 우주에는 소리가 없다?…'블랙홀 소리' 사상 첫 공개☞ '흉기난동 부실대응' 전직 경찰관 2명 해임취소 소송☞ 붕 떴다 '쾅쾅쾅'…미 '공포의 미끄럼틀' 하강 속도 늦췄다더니▶제보는 카카오톡 okjebo▶연합뉴스 앱 지금 바로 다운받기~&lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt;</t>
+          <t>산업부 "체코·폴란드 수주 모멘텀 될 것…원전 생태계 활성화 기대""對러시아 제재도 고려해 수주…원자로 아닌 발전설비라 제재대상 아냐"전문가 "원전 부속건물 수주인 점 아쉬워…원전 '르네상스' 대비해야"한수원, 이집트 엘다바 원전 2차측 건설사업 수주[한수원 제공. 재판매 및 DB 금지](서울=연합뉴스) 권희원 기자 = 정부가 13년 만에 대규모 해외 원전 건설 프로젝트를 수주하면서 윤석열 정부가 출범 직후부터 약속한 '2030년까지 원전 10기 수출' 목표 달성에 속도가 붙을지 주목된다.25일 산업통상자원부에 따르면 한국수력원자력은 이날 이집트 카이로에서 러시아 국영 원전기업 로사톰의 원전건설 담당 자회사인 ASE JSC사(社)와 3조원 규모의 이집트 엘다바 원전 건설 프로젝트 수주 계약을 체결했다.산업부는 이번 이집트 원전 건설 프로젝트 수주가 윤석열 정부의 첫 원전 수출 성과인 동시에 향후 체코, 폴란드 원전 수주의 강력한 모멘텀이 될 것으로 평가하고 있다.이번 대규모 원전 사업 수주가 2009년 아랍에미리트(UAE) 바라카 원전 이후 13년 만이자 중동에 이어 아프리카 원전 시장 첫 진출이라는 데도 의미를 부여하고 있다.◇ 정부 "원전수출 정책 첫 가시적 성과…체코·폴란드 수주 모멘텀 될 것"이창양 산업부 장관은 "이번 엘다바 프로젝트 수주는 윤석열 정부의 강력한 원전 수출 정책과 연계된 첫 가시적인 성과"라며 "탈원전 폐기를 공식화하고 원전수출전략 추진위원회를 가동하는 등 원전 정책의 변화와 강력한 수출 추진 의지가 계약 성사에 기여한 것"이라고 밝혔다.이어 "체코, 폴란드 등 우리 원전의 우수성을 높이 평가하고 원전 협력을 타진하는 국가들이 많은 만큼 앞으로 우리가 가진 모든 역량을 총결집해 원전 수출이 새로운 국부를 창출하고 성장산업으로 커나갈 수 있도록 강력히 지원하겠다"고 강조했다.정부는 지난 몇 년간 '일감 절벽'으로 어려움을 겪어 온 원전 기자재·시공업체에 일감을 공급하며 원전산업 생태계에 활력을 불어넣을 수 있을 것으로 기대하고 있다.한수원과 국내 기자재 업체가 함께 이집트에 진출함으로써 신한울 3·4호기 등 국내 원전 건설 착수·발주가 본격화되기 전에 일감 창출의 마중물 역할을 하게 될 것이라는 얘기다.무엇보다 주요 원전 수출국으로 꼽히는 체코, 폴란드 등과의 협상 과정에서 이번 수주 실적이 유리하게 작용할 것으로 기대하고 있다.또한 아프리카 역내 중심국인 이집트가 최초로 시행하는 원전 사업에 참여하게 된 만큼 우리 기업들에 아프리카 원전 시장 진출 기회를 제공해 줄 수 있을 것으로 전망하고 있다.엘다바 원전 프로젝트[산업부 제공. 재판매 및 DB 금지]산업부는 또 100여개 이상의 기자재 업체로 구성된 탄탄한 원전 산업 공급망과 전 세계 최저 수준의 건설 단가를 바탕으로 우리나라의 원전 기술이 전 세계 발주처로부터 높은 평가를 받고 있다고 설명했다.한국의 원전 건설 단가는 ㎾(킬로와트)당 3천571달러 수준으로 중국(4천174달러), 미국(5천833달러), 러시아(6천250달러), 프랑스(7천931달러) 등에 비해 낮은 편이다.산업부는 이번 이집트 원전 건설 프로젝트의 주계약자가 러시아 국영 원자력에너지사인 로사톰의 자회사 'ASE'인 만큼 러시아에 대한 국제 제재와 미국의 입장까지 종합적으로 고려해 계약 체결을 추진했다고 설명했다.박일준 산업부 2차관은 출입기자단 대상 백브리핑에서 "돌발적인 전쟁으로 러시아에 대한 국제 제재가 시작되면서 이집트 원전 건설 사업이 정상적으로 이뤄질지에 대한 회의적 시각이 있었지만, 러시아·이집트·미국의 입장을 수시로 점검하면서 사업에 참여했다"고 설명했다.박 차관은 이어 "한국이 수주한 것은 원자로 부분이 아니라 발전 설비이기 때문에 제재 대상이 아니며 미국의 입장에도 배치되지 않는다는 판단을 했다"고 부연했다.전문가들은 이번 원전 수주가 우리나라가 독자 개발한 수출형 원전 모델인 APR1400을 수출하는 것이 아니라 2차 건설사업(원전 부속건물 건설사업) 일부를 맡는 데 그친 점은 아쉽다고 보면서도 원전 생태계 부흥의 계기를 마련했다는 점은 높게 평가했다.정범진 경희대 원자력공학과 교수는 "APR1400을 수출한 것이었다면 원전 생태계 전반에 영향을 미치겠지만 2차 건설사업 수주이기 때문에 전체 산업에 미치는 영향은 미미할 것으로 본다"며 "다만 돈줄이 마른 원전 산업에 활력을 불어넣는 마중물 역할을 할 것으로 기대한다"고 말했다.한국이 수출한 UAE 바라카 원전 2호기[연합뉴스 자료사진]◇ "원전, 에너지 안보 핵심으로 떠올라…원전 '르네상스' 대비해야"정부는 러시아·우크라이나 전쟁으로 인한 에너지 수급 위기로 미국, 독일, 프랑스 등 주요 국가들이 신규 원전 건설과 기존 원전 연장 가동 계획을 발표함에 따라 해외 원전 시장 규모가 빠른 속도로 확대될 것으로 내다보고 있다.미국은 청정 전력에 원전을 포함시키며 상업 원전을 지원하기로 했고, 영국은 2050년까지 원전 8기를 건설한다는 계획이다.독일은 오는 12월 폐쇄 예정인 원전 3기의 가동 연장을 검토 중이며, 프랑스는 2035년까지 원전 6기의 건설을 추진 중이다.유럽연합(EU)은 원전을 탄소 감축을 위한 주요 수단으로 인정하면서 지난달 녹색분류체계(Taxonomy·택소노미)에 원전을 포함시킨 바 있다.특히 천연가스 등 에너지를 무기화하려는 국제사회의 움직임이 본격화되면서 원전이 에너지 안보의 핵심 산업으로 떠올랐다는 평가다.신재생에너지 전환 과정에서 액화천연가스(LNG) 발전을 늘렸지만 러시아가 유럽행(行) 가스 공급 중단을 예고한 데 이어 호주도 천연가스 수출 제한을 검토하면서 오히려 에너지 위기로 이어졌다는 것이다.이에 따라 일각에서는 앞으로 다가올 원전 '르네상스'에 대비해야 한다는 목소리도 나온다.정범진 교수는 "신규 원전 시장이 활성화되면서 원전 르네상스를 맞게 될 가능성이 큰 만큼 대규모 수출 시장이 열릴 때를 대비해야 한다"며 "2030년 원전 수출 10기 목표 달성 이후를 대비해야 한다는 것"이라고 조언했다.주한규 서울대 원자핵공학과 교수도 "세계 원전 시장이 확대되는 중이기 때문에 지금까지 거론되지 않은 국가에 대한 수출도 가능하다"며 "앞으로 탄소세가 본격적으로 추진되고 에너지 안보의 중요성이 강조되면서 원전의 수요가 더욱 늘어나게 될 것"이라고 전망했다.hee1@yna.co.kr(끝)[이 시각 많이 본 기사]☞ 전북 전주서 중년부부 숨진 채 발견…경찰 "아내 목에 상처"☞ 손잡이 달린 컵라면 나와…농심 "카구리에 우선 도입·확대 검토"☞ 홍준표 이어 尹 '40년 지기'도…"김여사 팬클럽 즉각 해체해야"☞ '술마시고 화가나' 동거남과 이별 후 집에 불 지른 20대☞ 경찰, 가수 남태현·방송인 서민재 마약 혐의 입건☞ 이준석, 與연찬회에 "얼평에 박수…그게 딱 당 상황"☞ '나 홀로 집에' 케빈 형 역할 배우, 성폭행 혐의로 조사받아☞ 방정오 前TV조선 대표, '장자연 보도' MBC 상대 손배소 일부승소☞ 박지원, 검찰 수사에 "나는 신속히 하고 도이치모터스는 늦어져"▶제보는 카카오톡 okjebo▶연합뉴스 앱 지금 바로 다운받기~&lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt;</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>윤석열 원전 건설 프로젝트 수주가 원전산업 생태계에 활력을 불어넣을 것으로 기대된다.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>수주</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>생산업자가 제품의 주문을 받음</t>
         </is>
       </c>
     </row>
@@ -576,24 +627,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[OK!제보] 반찬가게 깻잎 먹는데 '으적'…이번엔 모래 범벅 중국산</t>
+          <t>아빠가 중고거래로 15만원에 산 '갤플립4'…알고보니 모형 '분통'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220825n03106?mid=n1006</t>
+          <t>https://news.nate.com/view/20220825n13453?mid=n1006</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>며칠 전 담배꽁초 이어 깻잎서 또 이물질중국산 깻잎 반찬가게 점유율 최대 90% 추정수입 농산물 더 철저한 위생관리 필요모래 범벅 중국산 깻잎깻잎 위의 양념같은 가루들이 모두 모래라고 한다. 제보자 A씨 제공. 재판매 및 DB 금지.(서울=연합뉴스) 김대호 기자 = 동네 반찬가게에서 모래가 양념처럼 범벅이 된 깻잎이 팔려 밥상머리 안전이 다시 도마 위에 오르고 있다.이번에 문제가 된 깻잎도 며칠 전 담배꽁초가 나온 깻잎과 같은 중국산으로 확인됐다.경기도 시흥시에 사는 A씨는 지난 15일 집 앞 반찬가게에서 구매한 깻잎장아찌를 먹는데 으적거리는 느낌이 들어 뱉어내고 다시 먹는데 또 으적거려 자세히 보았더니 모래가 덮여있었다고 한다.A씨가 촬영한 깻잎 사진을 보면 모래는 빨갛게 고춧가루 양념이 배어있었는데 밥알만 한 모래 알도 많아 육안으로도 금방 모래임을 알 수 있었다.A씨가 구매한 깻잎은 중국에서 원재료를 수입한 후 국내 업체가 반찬으로 제조, 유통업체를 통해 전국 반찬가게로 판매된 것으로 확인됐다.유통업체들은 깻잎의 원재료 채취와 가공 등에 인건비가 워낙 많이 들어 중국산 의존도가 높은데, 국내 반찬가게 점유율이 최대 90%에 달할 수 있다고 추정했다.반찬가게는 깻잎 금액을 환불하고 추가 보상을 해주려 했으나, A씨는 보상을 거부하고 식품의약품안전처에 신고했다. 식약처는 반찬가게와 제조업체를 차례로 조사할 예정이라고 A씨에게 알려왔다.모래 범벅 중국산 깻잎깻잎 위의 양념같은 가루들이 모두 모래라고 한다. 제보자 A씨 제공. 재판매 및 DB 금지.깻잎 제조업체는 중국에서 깻잎을 채취한 후 세척, 절임, 포장 등 1차 가공 과정이나 반찬가게에서 대용량의 깻잎을 소량으로 나누는 과정에서 이물질이 들어갔을 가능성이 있다고 밝혔다.또 한국에서 중국산 깻잎 원재료를 반찬으로 가공하기 전 다시 세척하는데, 이때 젖은 깻잎이 달라붙어 떨어지지 않으면 이물질을 걸러내지 못할 수 있다고 업체는 설명했다.업체 관계자는 "위생관리를 철저히 하는데 이물질이 나와 놀랐다. 소비자가 거짓을 말하지 않았다면 유통, 제조 과정에서 이물질이 들어갔다고 인정할 수밖에 없다. 농산물은 흙과 같은 이물질 위험이 상존한다"고 말했다.깻잎을 판매한 반찬가게도 충격을 금치 못하고 위생관리에 더 노력하고 있다.A씨는 "아무리 깻잎을 엉터리로 씻었다고 해도 흙이 양념처럼 가득 올려져 있는 것은 이해되지 않는다. 며칠 전 중국산 깻잎에서 담배가 나왔는데 모래까지 나와 당국의 위생 관리에 경각심을 제고하기 위해 제보하게 됐다"고 말했다.daeho@yna.co.kr기사제보나 문의는 카카오톡 okjebo(끝)[이 시각 많이 본 기사]☞ 하태경 "尹대통령, 침묵하면 '이준석 쫓아낸 것 주도' 시인"☞ '록키' 실베스터 스탤론, 76살 황혼이혼…결혼 25년만에 결별☞ 코비 시신사진 돌려본 소방·경찰에 214억원 배상 평결☞ 공수처장 "김건희 여사 수사 검토"…김여사, 수해 복구 봉사☞ 반찬가게 깻잎 먹는데 '으적'…이번엔 모래 범벅 중국산☞ 핀란드 총리, 파티 논란에 "나도 사람…가끔 즐거움 원해" 울컥☞ '기러기, 토마토' 대신 'Kayak, deed'…우영우 영어 더빙은☞ '장애인 아버지 폭행살해' 前 권투 국대 징역 10년 확정☞ '미래식량' 식용곤충으로 영양가 높은 고기향 조미료 만든다▶제보는 카카오톡 okjebo▶연합뉴스 앱 지금 바로 다운받기~&lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt;</t>
-        </is>
-      </c>
+          <t>(온라인 커뮤니티 갈무리)(서울=뉴스1) 소봄이 기자 = 자식에게 손 빌리기 싫었던 한 남성이 직접 휴대전화 중고거래를 하려다가 전시용 모형을 15만원 주고 구입했다는 사연이 전해졌다.지난 24일 한 온라인 커뮤니티에는 '아빠가 당근마켓에서 플립4 사기당하셨는데 어떻게 해야 하나'라는 제목의 글이 올라왔다.글쓴이 A씨에 따르면, 그의 부친은 갤럭시S8 기종을 사용하고 있었다. 이에 A씨는 "최신 휴대전화로 바꾸라"고 설득했으나, 부친은 "지금 쓰는 게 좋다"며 휴대전화를 교체하지 않았다.A씨는 "원래 내가 휴대전화 사드리는데 아빠 딴에는 나한테 손 빌리는 게 싫으신 것 같다"며 "미루고 미루다 이번에 직접 휴대전화를 바꾸려고 하셨다"고 설명했다.평소 새 제품을 구매하기보다 중고 거래를 이용해 시세를 잘 모르던 부친은 '당근마켓'에 갤럭시 플립4 제품이 올라온 것을 보고 구매에 나섰다.판매자는 "갤럭시 Z 플립4 5G 핑크골드 레플리카(실물을 모방해 만든 복제품) 판매합니다"라며 전시용 모형을 15만원에 판매했다.부친은 상자 포장까지 돼 있어 의심 없이 직거래한 뒤 집에 돌아왔다가 진짜 휴대전화가 아니라 매장 전시용 모형이라는 사실을 알게 됐다. 그는 "글에 '핑크골드 레플리카'라고 적혀 있어서 모델 종류인 줄 알았다"고 말했다.또 부친은 휴대전화를 파는 걸 당연하게 생각해 판매자에게 "실제 휴대전화가 맞냐"는 질문도 하지 않았다고 한다.이에 대해 판매자는 "모형인 거 제목이랑 사진에 다 명시돼 있는데 착각한 사람 잘못이지, 난 잘못 없다"며 "상식적으로 최신 휴대전화 중고가 15만원인 게 말이 되냐. 이 가격을 보고 휴대전화를 파는 거로 생각하는 사람이 이상한 것"이라고 환불을 거부했다.이를 두고 A씨는 "모형이라는 표식은 마지막 사진 맨 밑에만 깨알같이 적혀 있다"며 "나머지는 다 휴대전화를 접은 상태로 찍은 사진"이라고 황당해했다.그러면서 "애초에 저런 모형이 15만원씩이나 하냐. 누가 봐도 어르신들처럼 잘 모르는 사람들이 보기에 충분히 오해하게끔 낚으려고 한 것 같은데 사기죄로 성립 안 되냐"고 분노했다.이와 관련 누리꾼들은 "판매자가 다 적어놨으니 사기 아니다. 구매자가 부주의했던 것"이라고 봤다. 이들은 "당근마켓 자주 하신다면서 휴대전화 시세 모르는 게 말이 되냐", "최신 휴대전화를 싸게 사려다가 제대로 확인 안 하고 산 게 문제", "판매자를 사기꾼으로 몰아가는 건 너무 했다" 등의 반응을 보였다.일부 누리꾼들은 "어르신들은 착각할 만하다. 모형이라는 걸 강조했으면 더 좋았을 것 같다"며 안타까워했다.한편 중고거래를 통해 물건을 구입한 경우 '전자상거래 등에서의 소비자보호에 관한 법률'이 적용되지 않는다. 따라서 구매자가 단순변심으로 인해 환불을 요구해도 판매자가 환불을 해주지 않아도 된다.특히 상품을 판매할 때 '하자가 있어도 환불이 어렵다'고 알렸거나 구매자의 부주의로 제품이 망가진 경우에는 더욱 환불이 어렵다.sby@news1.krCopyright ⓒ 뉴스1. All rights reserved. 무단 전재 및 재배포 금지.뉴스1 관련뉴스☞ "고민정 누나, 경찰소개로 만나" 개그맨 김영민 영상 무혐의 ☞ 송갑석 "이재명, 최고 후보 4명 줄세워 다녀…노골적 비정상" ☞ 尹 동선, 김 여사 팬카페 유출…정우택 "또 터지면 치명타"☞ 박지원 "곧 檢소환될 듯…포렌식 마친 폰 돌려주는 걸 보니"☞ '열애설' 뷔·제니, 이번엔 집 데이트 사진?</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>24일 한 온라인 커뮤니티에는 '아빠가 당근마켓에서 플립4 사기당하셨는데 어떻게 해야 하나'라는 제목의 글이 올라왔다.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -603,24 +661,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>원전수출 첫 성과 낸 尹정부…중동 이어 아프리카 시장에도 진출</t>
+          <t>"아저씨 두개골 깨버리자" 말에 초등생 때려…훈계인가 폭행인가</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220825n34322?mid=n1006</t>
+          <t>https://news.nate.com/view/20220825n02519?mid=n1006</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>산업부 "체코·폴란드 수주 모멘텀 될 것…원전 생태계 활성화 기대""對러시아 제재도 고려해 수주…원자로 아닌 발전설비라 제재대상 아냐"전문가 "원전 부속건물 수주인 점 아쉬워…원전 '르네상스' 대비해야"한수원, 이집트 엘다바 원전 2차측 건설사업 수주[한수원 제공. 재판매 및 DB 금지](서울=연합뉴스) 권희원 기자 = 정부가 13년 만에 대규모 해외 원전 건설 프로젝트를 수주하면서 윤석열 정부가 출범 직후부터 약속한 '2030년까지 원전 10기 수출' 목표 달성에 속도가 붙을지 주목된다.25일 산업통상자원부에 따르면 한국수력원자력은 이날 이집트 카이로에서 러시아 국영 원전기업 로사톰의 원전건설 담당 자회사인 ASE JSC사(社)와 3조원 규모의 이집트 엘다바 원전 건설 프로젝트 수주 계약을 체결했다.산업부는 이번 이집트 원전 건설 프로젝트 수주가 윤석열 정부의 첫 원전 수출 성과인 동시에 향후 체코, 폴란드 원전 수주의 강력한 모멘텀이 될 것으로 평가하고 있다.이번 대규모 원전 사업 수주가 2009년 아랍에미리트(UAE) 바라카 원전 이후 13년 만이자 중동에 이어 아프리카 원전 시장 첫 진출이라는 데도 의미를 부여하고 있다.◇ 정부 "원전수출 정책 첫 가시적 성과…체코·폴란드 수주 모멘텀 될 것"이창양 산업부 장관은 "이번 엘다바 프로젝트 수주는 윤석열 정부의 강력한 원전 수출 정책과 연계된 첫 가시적인 성과"라며 "탈원전 폐기를 공식화하고 원전수출전략 추진위원회를 가동하는 등 원전 정책의 변화와 강력한 수출 추진 의지가 계약 성사에 기여한 것"이라고 밝혔다.이어 "체코, 폴란드 등 우리 원전의 우수성을 높이 평가하고 원전 협력을 타진하는 국가들이 많은 만큼 앞으로 우리가 가진 모든 역량을 총결집해 원전 수출이 새로운 국부를 창출하고 성장산업으로 커나갈 수 있도록 강력히 지원하겠다"고 강조했다.정부는 지난 몇 년간 '일감 절벽'으로 어려움을 겪어 온 원전 기자재·시공업체에 일감을 공급하며 원전산업 생태계에 활력을 불어넣을 수 있을 것으로 기대하고 있다.한수원과 국내 기자재 업체가 함께 이집트에 진출함으로써 신한울 3·4호기 등 국내 원전 건설 착수·발주가 본격화되기 전에 일감 창출의 마중물 역할을 하게 될 것이라는 얘기다.무엇보다 주요 원전 수출국으로 꼽히는 체코, 폴란드 등과의 협상 과정에서 이번 수주 실적이 유리하게 작용할 것으로 기대하고 있다.또한 아프리카 역내 중심국인 이집트가 최초로 시행하는 원전 사업에 참여하게 된 만큼 우리 기업들에 아프리카 원전 시장 진출 기회를 제공해 줄 수 있을 것으로 전망하고 있다.엘다바 원전 프로젝트[산업부 제공. 재판매 및 DB 금지]산업부는 또 100여개 이상의 기자재 업체로 구성된 탄탄한 원전 산업 공급망과 전 세계 최저 수준의 건설 단가를 바탕으로 우리나라의 원전 기술이 전 세계 발주처로부터 높은 평가를 받고 있다고 설명했다.한국의 원전 건설 단가는 ㎾(킬로와트)당 3천571달러 수준으로 중국(4천174달러), 미국(5천833달러), 러시아(6천250달러), 프랑스(7천931달러) 등에 비해 낮은 편이다.산업부는 이번 이집트 원전 건설 프로젝트의 주계약자가 러시아 국영 원자력에너지사인 로사톰의 자회사 'ASE'인 만큼 러시아에 대한 국제 제재와 미국의 입장까지 종합적으로 고려해 계약 체결을 추진했다고 설명했다.박일준 산업부 2차관은 출입기자단 대상 백브리핑에서 "돌발적인 전쟁으로 러시아에 대한 국제 제재가 시작되면서 이집트 원전 건설 사업이 정상적으로 이뤄질지에 대한 회의적 시각이 있었지만, 러시아·이집트·미국의 입장을 수시로 점검하면서 사업에 참여했다"고 설명했다.박 차관은 이어 "한국이 수주한 것은 원자로 부분이 아니라 발전 설비이기 때문에 제재 대상이 아니며 미국의 입장에도 배치되지 않는다는 판단을 했다"고 부연했다.전문가들은 이번 원전 수주가 우리나라가 독자 개발한 수출형 원전 모델인 APR1400을 수출하는 것이 아니라 2차 건설사업(원전 부속건물 건설사업) 일부를 맡는 데 그친 점은 아쉽다고 보면서도 원전 생태계 부흥의 계기를 마련했다는 점은 높게 평가했다.정범진 경희대 원자력공학과 교수는 "APR1400을 수출한 것이었다면 원전 생태계 전반에 영향을 미치겠지만 2차 건설사업 수주이기 때문에 전체 산업에 미치는 영향은 미미할 것으로 본다"며 "다만 돈줄이 마른 원전 산업에 활력을 불어넣는 마중물 역할을 할 것으로 기대한다"고 말했다.한국이 수출한 UAE 바라카 원전 2호기[연합뉴스 자료사진]◇ "원전, 에너지 안보 핵심으로 떠올라…원전 '르네상스' 대비해야"정부는 러시아·우크라이나 전쟁으로 인한 에너지 수급 위기로 미국, 독일, 프랑스 등 주요 국가들이 신규 원전 건설과 기존 원전 연장 가동 계획을 발표함에 따라 해외 원전 시장 규모가 빠른 속도로 확대될 것으로 내다보고 있다.미국은 청정 전력에 원전을 포함시키며 상업 원전을 지원하기로 했고, 영국은 2050년까지 원전 8기를 건설한다는 계획이다.독일은 오는 12월 폐쇄 예정인 원전 3기의 가동 연장을 검토 중이며, 프랑스는 2035년까지 원전 6기의 건설을 추진 중이다.유럽연합(EU)은 원전을 탄소 감축을 위한 주요 수단으로 인정하면서 지난달 녹색분류체계(Taxonomy·택소노미)에 원전을 포함시킨 바 있다.특히 천연가스 등 에너지를 무기화하려는 국제사회의 움직임이 본격화되면서 원전이 에너지 안보의 핵심 산업으로 떠올랐다는 평가다.신재생에너지 전환 과정에서 액화천연가스(LNG) 발전을 늘렸지만 러시아가 유럽행(行) 가스 공급 중단을 예고한 데 이어 호주도 천연가스 수출 제한을 검토하면서 오히려 에너지 위기로 이어졌다는 것이다.이에 따라 일각에서는 앞으로 다가올 원전 '르네상스'에 대비해야 한다는 목소리도 나온다.정범진 교수는 "신규 원전 시장이 활성화되면서 원전 르네상스를 맞게 될 가능성이 큰 만큼 대규모 수출 시장이 열릴 때를 대비해야 한다"며 "2030년 원전 수출 10기 목표 달성 이후를 대비해야 한다는 것"이라고 조언했다.주한규 서울대 원자핵공학과 교수도 "세계 원전 시장이 확대되는 중이기 때문에 지금까지 거론되지 않은 국가에 대한 수출도 가능하다"며 "앞으로 탄소세가 본격적으로 추진되고 에너지 안보의 중요성이 강조되면서 원전의 수요가 더욱 늘어나게 될 것"이라고 전망했다.hee1@yna.co.kr(끝)[이 시각 많이 본 기사]☞ 전북 전주서 중년부부 숨진 채 발견…경찰 "아내 목에 상처"☞ 손잡이 달린 컵라면 나와…농심 "카구리에 우선 도입·확대 검토"☞ 홍준표 이어 尹 '40년 지기'도…"김여사 팬클럽 즉각 해체해야"☞ '술마시고 화가나' 동거남과 이별 후 집에 불 지른 20대☞ 경찰, 가수 남태현·방송인 서민재 마약 혐의 입건☞ 이준석, 與연찬회에 "얼평에 박수…그게 딱 당 상황"☞ '나 홀로 집에' 케빈 형 역할 배우, 성폭행 혐의로 조사받아☞ 방정오 前TV조선 대표, '장자연 보도' MBC 상대 손배소 일부승소☞ 박지원, 검찰 수사에 "나는 신속히 하고 도이치모터스는 늦어져"▶제보는 카카오톡 okjebo▶연합뉴스 앱 지금 바로 다운받기~&lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt;</t>
-        </is>
-      </c>
+          <t>스마트이미지 제공모욕적인 말을 들었다며 초등학생을 때린 50대 남성이 '훈계'였다고 주장했지만 법원은 '폭행'이었다는 판단을 내렸다. 다만 항소심에서는 일부 감형이 됐다.대전지법 형사항소2부(최형철 부장판사)는 A(52)씨에 대한 항소심에서 벌금 200만 원을 내린 원심을 파기하고 벌금 100만 원을 선고했다.A씨는 지난 2020년 5월 10일 대전의 한 아파트 풋살장에서 초등학생인 B(12)군 등과 함께 축구를 하며 골키퍼를 맡았다.이때 B군이 "아저씨 두개골을 깨버리자"고 말했고, 화가 난 A씨는 B군을 향해 축구공을 걷어차고 손날로 양쪽 쇄골 부분을 4차례 때린 혐의로 재판에 넘겨졌다.재판 과정에서 A씨 측은 "훈계 차원에서 손가락 부분으로 쇄골 부위를 가볍게 친 것이고, 피해자의 잘못된 언행을 훈계하려는 과정에서 신체적 접촉이 있었더라도 이는 사회상규에 위배되지 않는 정당행위에 해당한다"고 주장했지만 재판부는 받아들이지 않았다.1심에서는 "피고인이 만 12세에 불과한 피해자에게 상해를 가했다"며 벌금 200만 원이 선고됐고 A씨는 이에 불복해 항소했다.항소심 재판부는 "피고인이 폭행한 주된 동기나 목적이 피해자 훈계에 있었다기보다 자신의 분노를 표출하는 데 있었던 것으로 보이므로 그 동기나 목적의 정당성을 인정할 수 없다"며 "설령 피고인에게 피해자를 올바른 사회인으로 계도하려는 목적이 있었다 하더라도 아동복지법의 취지에 비춰볼 때 피고인의 행위를 훈계를 위한 상당한 수단으로 보기는 어렵다"고 말했다.다만 기소 당시 '피해자에게 약 2주간의 치료가 필요한 상해를 가했다'는 부분에 대해, 항소심에서는 "피고인의 폭행으로 인한 상처는 극히 경미한 것으로서 굳이 치료할 필요 없이 자연적으로 치유되며 일상생활을 하는 데 아무런 지장이 없는 경우에 해당한다"고 판단했다. A씨에 대해서도 당초 적용된 상해가 아닌 폭행죄가 인정됐다.항소심 재판부는 "피해자가 피고인에게 심한 말을 해 피고인의 분노를 유발한 측면이 있고 피고인이 초범인 점 등을 양형에 함께 고려했다"고 덧붙였다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn대전CBS 김정남 기자 jnkim@cbs.co.kr▶ 기자와 카톡 채팅하기▶ 노컷뉴스 영상 구독하기[ 노컷뉴스 주요뉴스 ]- [단독]아파트 9층서 집기던진 20대 男, 하마터면…주민들 "재발, 두렵다"- 尹 '대외비' 경호 일정 유출 논란 …경호처 '경위 파악'- [르포]5년 간 화재만 '3번'…피해 상인들 '망연자실'- 청년도 노인도 불행한 '인구 디스토피아'- 형제복지원, "국가에 의한 인권 침해"…피해자 트라우마 치료 시급</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>대전지법 형사항소2부(최형철 부장판사)는 초등학생을 때린 50대 남성이 '훈계'였다고 주장했지만 법원은 '폭행'이었다는 판단을 내렸다.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -630,24 +695,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>세계</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[2보] 한은, 기준금리 0.25%p 인상…사상 첫 4회 연속↑</t>
+          <t>'사망선고' 받았다가 장례식장서 눈뜬 3살 아이…결국 영면</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220825n08179?mid=n1006</t>
+          <t>https://news.nate.com/view/20220825n12527?mid=n1006</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>뛰는 물가·환율 방어…2.25→2.50%, 미국과 같아져  (서울=연합뉴스) 신호경 기자 = 한국은행이 치솟는 물가와 원/달러 환율 등을 고려해 사상 처음 네 차례 연속으로 기준금리를 올렸다.한은 금융통화위원회(이하 금통위)는 25일 오전 9시부터 열린 통화정책방향 회의에서 현재 연 2.25%인 기준금리를 2.50%로 0.25%포인트 인상했다.이에 따라 기준금리는 작년 8월, 11월과 올해 1월, 4월, 5월, 7월에 이어 이날까지 약 1년 사이 0.25%포인트씩 여섯 차례, 0.50%포인트 한 차례, 모두 2.00%포인트 높아졌다.      이창용 총재, 금융통화위원회 본회의 주재(서울=연합뉴스) 이창용 한국은행 총재가 25일 오전 서울 중구 한국은행에서 열린 금융통화위원회 본회의를 주재하고 있다. 2022.8.25 [한국은행 제공. 재판매 및 DB 금지] photo@yna.co.kr금통위가 기준금리 인상 기조를 유지한 것은, 아직 물가 오름세가 꺾이지 않았다고 판단했기 때문이다. 이창용 한은 총재는 이달 1일 국회 기획재정위원회(기재위)에 출석해 "(소비자물가 상승률이) 6%를 넘으면 훨씬 더 큰 비용이 수반될 수 있기 때문에 안타깝지만, 거시적 측면에서는 물가 오름세가 꺾일 때까지는 금리 인상 기조를 유지할 수밖에 없다"고 밝힌 바 있다.7월 소비자물가지수(108.74)는 외식·농축수산물 가격 상승 등의 영향으로 작년 같은 달보다 6.3% 뛰었다. 1998년 11월(6.8%) 이후 23년 8개월 만에 가장 높은 상승률이다.향후 1년의 예상 물가 상승률에 해당하는 기대인플레이션율도 이달 4.3%로 역대 최고였던 7월(4.7%)보다는 다소 낮아졌지만, 여전히 4%대를 웃돌고 있다.물가뿐 아니라 한국과 미국의 기준금리 '역전' 상태도 인상의 중요한 배경이 된 것으로 보인다.미국 연방준비제도(Fed·연준)가 지난달 27일(현지시간) 연방공개시장위원회(FOMC) 정례회의에서 두 달 연속 '자이언트 스텝'(한꺼번에 기준금리 0.75%포인트 인상)을 밟은 뒤 미국의 기준금리(2.25∼2.50%)는 한국(2.25%)보다 높아졌다.한은으로서는 기준금리 인상으로 격차를 좁혀 외국인 투자자금 유출과 원화 약세, 환율 변화에 따른 수입 물가 상승 등의 위험을 최대한 줄여야 하는 처지다. 특히 연준의 7월 FOMC 정례회의 의사록에서 통화 긴축 의지가 다시 확인된 뒤, 지난 23일 원/달러 환율이 금융위기 이후 가장 높은 1,345.5원까지 뛰자 금리 인상 필요성은 더 커졌다.의사봉 두드리는 이창용 총재(서울=연합뉴스) 이창용 한국은행 총재가 25일 오전 서울 중구 한국은행에서 열린 금융통화위원회 본회의에서 의사봉을 두드리고 있다. 2022.8.25 [한국은행 제공. 재판매 및 DB 금지] photo@yna.co.kr이날 금통위가 기준금리를 0.25%포인트 올리면서 한국(2.50%)과 미국(2.25∼2.50%)의 기준금리 상단이 같아졌지만, 다음 달 미국 연준이 최소 빅 스텝(한꺼번에 기준금리 0.5%포인트 인상)을 밟을 가능성이 큰 만큼 곧 미국 우위로 다시 뒤집힐 전망이다. shk999@yna.co.kr(끝)[이 시각 많이 본 기사]☞ '록키' 실베스터 스탤론, 76살 황혼이혼…결혼 25년만에 결별☞ 반찬가게 깻잎 먹는데 '으적'…이번엔 모래 범벅 중국산☞ '기러기, 토마토' 대신 'Kayak, deed'…우영우 영어 더빙은☞ 경찰, '뮤직뱅크' 임영웅 점수 조작 의혹 석달째 조사 중☞ 슈가 출신 아유미, 10월 비연예인과 결혼☞ '미래식량' 식용곤충으로 영양가 높은 고기향 조미료 만든다☞ '불닭게티' '카구리' '불새라면'…먹어 봤나요?☞ 尹 대외비 일정 유출한 '건희사랑'…홍준표 "팬카페 해산해야"☞ 우주에는 소리가 없다?…'블랙홀 소리' 사상 첫 공개▶제보는 카카오톡 okjebo▶연합뉴스 앱 지금 바로 다운받기~&lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt;</t>
-        </is>
-      </c>
+          <t>카밀라 록사나 마르티네즈 멘도자. [트위터][헤럴드경제=김유진 기자] 사망선고를 받은 멕시코의 3살 아이가 장례식장에서 눈을 떴지만 끝내 숨지는 사건이 발생했다.24일(현지시각) 미국 뉴욕포스트 등은 멕시코 산 루이스 포토시의 세 살 소녀 카밀라 록사나 마르티네즈 멘도자가 의사들의 실수로 사망선고를 받은 뒤 깨어났지만 결국 사망했다고 보도했다.카밀라는 멘도자는 지난 17일 복통과 구토, 고열 등 증상으로 어머니 메리 제인 멘도자와 함께 동네 소아과를 찾았다. 의사의 권고에 따라 탈수증 치료를 위해 종합병원으로 옮긴 뒤 치료를 받고 진통해열제를 처방받아 병원에서 퇴원했다. 퇴원 이후에도 카밀라의 증세는 악화돼 같은 날 오후 10시께 다시 병원 응급실에 입원했다. 의료진은 카밀라를 어머니와 떨어뜨려 놓았고, 이후 아이가 탈수증으로 사망했다고 선고했다.모친 멘도자는 “침대에 누워있던 아이를 안아 올리자 아이도 나를 안고 있는 것 같았다”면서 “의료진이 내게서 카밀라를 데려가면서 ‘편히 쉴 수 있도록 해야 한다’고 말했다”고 회상했다.사망선고를 받은 카밀라의 장례식은 바로 다음날 열렸다. 이때 엄마의 눈에 들어온 건 관을 덮은 유리에 찬 뿌연 습기였다. 카밀라의 할머니도 카밀라의 눈이 움직이는 것을 목격했다. 이들은 카밀라를 관 밖으로 꺼내 아이의 맥박이 살아있음을 확인했다.가족들은 급히 카밀라를 구급차에 실어 병원으로 이송했지만 카밀라는 뇌부종으로 끝내 숨을 거뒀다.멘도자는 “많은 사람들에게 카밀라는 소중한 존재였다”며 “내가 진정 원하는 것은 정의가 실현되는 것이다. 의사들에게는 원한이 없지만, 다시는 이런 일이 발생하지 않도록 바뀌어 주기를 부탁한다”고 했다. 매체에 따르면 산 루이스 포토시주 당국은 해당 사건을 조사와 카밀라에 대한 부검을 진행 중이라고 전했다.kacew@heraldcorp.com[베스트 클릭! 헤럴드 경제 얼리어답터 뉴스] ▶ 文 “돌아만 봐도 복받을 것 같다” 빗속 뚫고 찾은 ‘이곳’ ▶ 깻잎에 모래가 '양념'처럼...중국산 깻잎김치 담배꽁초 이어 또 ▶ 텅빈 주차장 입구 막은 연두색車…"연락도 안돼" 무개념에 분노 ▶ ‘이상한 변호사 우영우’의 팽나무, 천연기념물 된다 ▶ “김우빈 지겹게 나온다 싶더니” 수백억 펑펑 ‘이곳’ 이런일이 ▶ “싼 출연료 ‘이 분’ 얕잡아 봤다가” 2천억 넷플릭스 대작 ‘망신살’ ▶ “예비군 동대장, 상근예비역 배우자에 ‘모유 먹여라’ 성희롱 발언” ▶ 뷔·제니 열애설 다시 불지핀 ‘이 사진’…소속사는 묵묵부답 ▶ 택시로 착각해 차 탄 할아버지 집까지 모시느라…면접 30분 늦은 사연 ▶ “3억 계약금 포기합니다”…집값 급락에 강남 재건축마저 계약 파기 [부동산360]Copyright ⓒ 헤럴드경제 All Rights Reserved.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>멕시코 산 루이스 포토시의 세 살 소녀 카밀라 록사나 마르티네즈 멘도자가 의사들의 실수로 사망선고를 받은 뒤 깨어났지만 끝내 사망했다.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -657,24 +729,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>세계</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>'조용히 그만두기'가 뭐길래…MZ세대는 왜 열광하나[찐비트]</t>
+          <t>"절대 만지지 마세요"…지폐·휴지 집었다가 '전신마비'</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220825n02384?mid=n1006</t>
+          <t>https://news.nate.com/view/20220825n02610?mid=n1006</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[아시아경제 정현진 기자] '조용히 그만두기(Quiet quitting). 일은 당신의 삶이 아니다. 당신의 가치는 당신의 생산적인 결과물로 정의되지 않는다.'지난달 25일(현지시간) 글로벌 숏폼 모바일 비디오 플랫폼 틱톡에 영상 하나가 올라왔습니다. 아이디 자이드르플린이 올린 이 영상에는 하늘색 티셔츠를 입은 한 남성이 뉴욕의 한 지하철역 의자에 걸터 앉아있고 '조용히 그만두기'라는 단어를 화면에 띄우며 "직장에서 (업무적으로) 더 나아가야 한다는 생각을 그만두는 것"이라고 소개합니다. 경쟁에 시달리고 업무 성과에 매달리며 스트레스를 받는 대신 내 몫 만큼만 일을 하고 현재의 삶에 집중하겠다는 의미가 담겼어요.아이디 자이드르플린(zaidleppelin)이 올린 틱톡 영상 캡쳐이 영상 아래에는 해시태그와 함께 '일의 개혁(#workreform)'이라는 단어가 남았습니다. 영상이 올라온 뒤 한 달 만에 조회 수는 480만 회를 넘어섰고 4500개의 댓글이 달렸어요. 유명 틱톡커들이 이 영상을 언급했고 이후 영상의 의미를 해석하는 추가 영상들이 틱톡에 속속 등장했죠. 미국의 MZ세대에서 조용히 그만두기는 하나의 유행이 됐습니다. 워싱턴포스트(WP), 월스트리트저널(WSJ), CNN방송, 가디언까지 유력 언론들도 이 현상을 주목했어요.이 영상을 올린 미국 소프트웨어 개발자이자 뮤지션인 24세 남성 자이드 칸은 지난 20일 블룸버그통신과의 인터뷰에서 "내가 아무리 많은 일을 해도 내가 기대하는 만큼 보상을 받지 못할 거라는 점을 깨달았다"라면서 "과로는 많은 구조화된 기업 환경 속에서 정신 건강과 육체 건강을 생산성 뒤로 둔다"라고 지적했습니다. 그는 이후 자신의 삶과 일의 경계를 파악할 수 있는 새로운 상사를 만나기 위해 일을 그만뒀습니다.◆ 왜 유행하나…팬데믹 후 찾아온 번아웃 때문조용히 그만두기는 목표 달성을 위해 일에 모든 시간과 정성을 쏟아붓는 '허슬 문화'와 상반된 개념인데요. 단어 자체가 '그만두기(quitting)'란 표현이 있어 퇴사를 의미하는 듯 보이지만 이보다는 번아웃을 겪은 직장인이 자신의 삶을 더욱 중시하며 일, 직장과 거리두기를 한다는 의미가 강합니다. 추가 수당 없이 과도하게 일을 하고 있다는 불만과 압박감이 터져나온 표현이기도 하죠. WP는 "MZ세대의 지식 근로자가 업무 환경 변화를 위해 투쟁하는 것"이라고 분석했어요.전 세계 직장인을 대상으로 한 설문조사에서 스트레스를 받는다는 응답률이 2021년 44%로 사상 최고를 기록했다.(표 출처 = 갤럽)올해 전 세계 직장인 중 업무로 받는 스트레스를 받는 비율이 사상 최고를 기록했다고 해요. 글로벌 여론조사기관 갤럽이 96개국의 11만2312개 기업을 직장인을 대상으로 설문조사한 결과 지난해 전 세계 직장인 중 스트레스를 받고 있다는 응답이 44%로 사상 최고로 집계됐습니다. 일을 할 때 걱정하거나 화나 슬픔을 느끼는 비율은 2020년에 비해 줄었는데 스트레스 정도는 오히려 늘었어요. 코로나19 이후 대퇴사 움직임, 원격근무 확대 등 일과 관련한 변화가 큰 상황에서 번아웃을 호소하는 직장인들이 크게 증가한 것이 이유로 꼽힙니다.특히 조용히 그만두기 열풍이 부는 미국 MZ세대의 경우 회사에 참여 의식을 갖는 비중이 크게 낮은 것으로 나타났는데요. 갤럽 조사에서 1989년 이후 태어난 MZ세대 직장인 중 소속감을 느끼는 비중이 1분기 중 31%로 사상 최저를 기록했다고 월스트리트저널(WSJ)은 전했습니다. 짐 하터 갤럽 근무 환경 및 웰빙 리서치 담당 최고 과학자는 조용히 그만두기를 언급하는 직장인들은 직장에 나오긴 하지만 최소한의 일을 한다는 점에서 직장에 소속감을 느끼진 못한다고 하는 응답자와 맥을 같이 한다고 평가했죠.지난해 중국에서는 '똑바로 드러누워 아무 일도 하지 않는다'는 뜻의 '탕핑(?平)'이라는 단어가 인터넷에서 유행했다.사실 MZ세대 사이에서 조용히 그만두기와 비슷한 단어가 이전에도 유행한 적 있는데요. 지난해 중국에서 청년층을 중심으로 유행한 '탕핑(?平)'이라는 단어가 대표적이죠. 이 단어의 뜻은 '똑바로 드러누워 아무 일도 하지 않는다'로, 온 힘을 다해 노력해도 삶이 나아지지 않는다는 인식을 바탕으로 더 노력하지 않고 최소한의 욕망만 유지하며 생활하는 상태를 의미합니다. 지난해 중국의 10대 인터넷 용어로도 꼽힐 정도로 유행한 단어인데요. 1년 뒤 중국이 아닌 미국에서도 비슷한 뜻을 지닌 단어가 유행한 것을 보면 이러한 상황이 전 세계적으로 공통적이라고 해석할 수 있을 겁니다.CNN방송은 이러한 단어가 1990년대에도 있었다면서 완전히 새로운 개념이 아닌 이 단어가 지금 유행하는 이유에 대해 팬데믹(세계적 대유행) 이후 사회·경제적으로 일에 대한 변화가 있는 상황이 있다고 분석했습니다. 원격근무가 확산하면서 일과 삶의 경계가 모호해지고 그 과정에서 MZ세대가 업무를 이해하는 방식에 차이가 생겼고요. 또 경기침체 시기에 취직한 밀레니얼 세대가 대퇴사 시대를 맞아 처음으로 직업적 불안을 덜어내고 이를 활용해 자신감을 드러내고 있는 것이라고 CNN은 해석하기도 했습니다.◆ "일과 삶 경계 만드는 게 조용할 일은 아니잖아?"조용히 그만두기 유행을 보고 MZ세대의 마음을 이해하지만 표현 자체가 부적절하다는 비판이 제기됩니다. 이 단어의 의미가 결국 일과 삶 사이에 일종의 적절한 경계를 만들어야 한다는 것인데, 어감 자체가 부정적으로 표현돼 마치 일과 삶의 경계를 두는 것 자체가 잘못된 일인 것 마냥 인식될 수 있다는 것이죠. 직장에서 계약서에 제시된 업무를 하는 것은 정상적인 일인데 마치 이 단어로 그 이상을 하는 것이 오히려 정상이고 제시된 업무만 하는 건 예외적인 것처럼 인식될 수 있다는 겁니다.디지털과 업무, 삶의 형태에 대해 연구하는 라하프 하루쉬 인류학자는 최근 블룸버그통신과의 인터뷰에서 "조용히 그만두기라는 단어가 일과 삶의 경계를 설정할 때 사람들이 직면하는 내면의 충돌을 표현하는 단어인데 이 자체로 수치스럽다는 의미가 담겨 있다"라면서 아직도 직장인들이 과로해 질병을 얻거나 번아웃이 와도 기대에 충족하기 위해 희생하는 것을 이상적인 것으로 보고 있다고 지적했어요.조직 문화 관련 전문가들은 단어가 내포한 의미가 부정적이고 비관적인 만큼 기업 뿐 아니라 사회, 청년층 직장인에게도 바람직한 상황이 아니라고 보고 있습니다. 기업 입장에서는 직원의 참여도나 만족도가 떨어질 수밖에 없고 사회적으로도 성장 동력을 떨어트리는 요인이 된다는 것이죠. 지난해 11월 중국에서 탕핑이라는 단어가 유행했을 당시 시진핑 국가주석이 직접 나서서 탕핑주의를 피해야한다고 강조한 것도 이러한 사회적 타격을 고려한 조치로 풀이됩니다.세지윅의 미셸 헤이 글로벌 최고인사책임자(CPO)는 WP에 "(조용히 그만두기가) 경계를 설정하는 것 이상의 의미를 갖는다"면서 "다수가 팬데믹이 거의 끝나가는 상황에서 느끼고 있는 지친 감정을 의미한다. 사람들이 (이 과정에서) 자신의 우선순위를 다시 평가하게 되고 그러면서 그 중 일부는 사회적 단절로 이어질 수 있을 것"이라고 전망했습니다.미 노스캐롤라이나 애슈빌에서 생산성 전문가로 활동하는 타냐 돌턴은 폭스뉴스에 "그저 포기하고 조용히 그만두겠다고 결심하면 자신의 일을 하며 잘 지내거나 성공할 기회를 놓치게 된다. 일을 즐기지 못하거나 목적이 사라지는 것이 뒤로 물러나게 하는 것"이라면서 "경계 뒤에 수동적으로 조용히 그만두는 것보다는 자신의 커리어에 조금 더 능동적인 접근을 하는 것이 더 낫다"고 말했습니다.◆ "직원과 사전 면담하고 업무 방식 되돌아봐라"직원들이 이렇듯 조용히 그만두는 사태를 막기 위해서는 기업이나 고용주가 적극적으로 대응할 필요가 있다고 전문가들은 말하는데요. 휴가 사용을 장려하는 등 다양한 방안들이 제시되고 있지만 여기에선 미 펜실베이니아대 와튼스쿨의 최연소 종신교수로 유명 학자인 애덤 그랜트 조직 심리학 교수가 지난 16일 한 행사에서 언급한 직장의 유독 문화와 번아웃을 어떻게 막는지에 대해 강연한 내용을 소개해보겠습니다. 그는 "전 세계 어디에서든 일을 할 수 있는 기회가 생기면서 사람들을 붙잡아두기가 갈수록 어려워지고 있다"고 했어요.애덤 그랜트 미국 펜실베이니아대 와튼스쿨 조직 심리학 교수미 경제매체 비즈니스인사이더에 따르면 그랜드 교수는 세가지 방법을 제시했습니다. 우선 직원들이 퇴사를 하기 직전에야 면담을 하지말고 미리 면담을 하는 방안을 내놨어요. 그는 고용주가 직원들을 만나 왜 이 회사에 들어왔고 계속 다니게 하는 이유는 무엇인지, 이직을 유발하는 원인이 혹시 있는지 등을 사전에 파악하라고 강조했어요. 그랜트 교수는 직원들에게 솔직하게 피드백을 해달라고 요구하기만 하면 그들이 편안하게 말하기 어렵다면서 이러한 평가를 받아들일 자세가 돼 있음을 보여주는 것도 중요하다고 덧붙였어요.직원들의 피드백을 받은 이후에는 기존 업무 방식에 대해서 되돌아보라고 그랜트 교수는 조언했습니다. 고용주가 그동안 최선이라 생각했던 업무 방식이 현 시점에도 적합한 지를 놓고 최소 1년에 두차례 정도 직원들과 아이디어를 공유하며 검토해보라는 것이죠. 또 직원들의 정신 건강이 업무에서 중요하다는 점을 깨닫고 이들이 이메일이나 화상회의 하는 시간을 제한하도록 했습니다. 마지막으로 직원들이 소속감을 가지면 기업과 직원 모두 긍정적 효과를 갖는 만큼 기업의 목적과 연계돼 있다는 인식을 심어주도록 하라고 조언했어요.편집자주[찐비트]는 ‘정현진의 비즈니스트렌드’이자 ‘진짜 비즈니스트렌드’의 줄임말로 조직문화, 인사제도와 같은 기업 경영의 트렌드를 보여주는 코너입니다. 그동안 주목받지 못했던 외신과 해외 주요 기관들의 분석 등을 토대로 신선하고 차별화된 정보와 시각을 전달드리겠습니다.정현진 기자 jhj48@asiae.co.kr[관련기사]☞ 주인 살린 동네 마스코트 '복순이'…코·가슴 훼손된 채 숨져☞ 윤이나는 3년 출전정지인데…'반칙' 알고 있던 캐디·코치는?☞ "이러다 우리가 中에 진다"…美 우주군 '충격' 보고서☞ 쓰러진 시민 차로 쳐 숨지게 한 택시기사…119신고 후 도주☞ "유산 될래?" "님 엄마나 신경쓰세요" …'좋아요'에 더 상처▶ 2022 임인년, 나의 토정비결과 신년운세는?▶ 빅데이터·인공지능·핀테크 취업연계 국비 교육&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
-        </is>
-      </c>
+          <t>[서울신문]길에 떨어진 지폐를 주웠다가 ‘전신마비’를 겪은 여성의 사연이 알려져 충격을 준 가운데, 유사한 사건이 또 다시 발생했다.24일(현지시간) 뉴욕포스트·NBC 등에 따르면 에린 밈스(Erin Mims)는 최근 미국 텍사스주 휴스턴에 위치한 한 식당에서 남편과 생일파티를 마친 뒤 자동차 문 손잡이에 꽂힌 의문의 손수건을 만졌다가 응급실에 실려가야 했다.에린은 당시 집으로 가기 위해 차 문을 열려다 손잡이에 걸쳐져 있는 수상한 냅킨 하나를 발견하고, “당신이 손잡이에 냅킨 꽂아뒀어?”라고 물었지만 남편은 “모른다”고 답했다. 출처를 알 수 없는 냅킨이 수상하긴 했지만 그냥 누군가 버려둔 쓰레기 정도로 생각한 에린은 맨손으로 냅킨을 잡아 던졌다. 이후 혹시 모를 사태에 대비해 손소독제로 손을 씻고 차에 올라탔다.그런데 2분이 채 지나지 않아 냅킨을 만졌던 손가락 끝쪽이 따끔거렸고, 5분이 지나자 팔 전체 감각이 무뎌지고 숨이 턱턱 막히기 시작했다. 에린은 “현기증이 나면서 숨을 쉬기 어려웠고, 온 몸에서 열이 나는 것 같았다”며 “곧장 남편에게 도움을 청해 응급실로 향했다”고 당시를 회상했다.병원으로 이송된 에린은 응급치료를 받았고, 검사 결과 ‘급성 약물 중독’ 진단을 받았다. 의료진은 “체내에서 검출된 양이 너무 적어 약물의 정체를 찾아내기 쉽지 않았다”면서도 “다만 중독성이 있는 물질이 원인으로, 아마도 납치를 노리고 독이 묻은 냅킨을 사용했을 가능성이 있다”고 설명했다.휴스턴 경찰 역시 “피해자의 증상은 다양한 독극물에 의한 중독 증상과 일치한다”고 시민들에게 조심할 것을 당부했다. 에린은 자신이 당한 끔찍한 경험을 SNS 공유하며 많은 사람들에게 유사 사건에 각별히 주의할 것을 경고했다.1달러 지폐 주웠다가 호흡곤란시민들은 지난달 바닥에 떨어진 1달러짜리 지폐를 주웠다가 전신마비 증상을 겪은 여성의 사연을 떠올렸다.켄터키주에 살고 있는 이 여성 역시 화장실 앞에 떨어진 1달러 지폐를 주웠다가 호흡곤란과 함께 온몸이 마비되는 증상을 겪었고, 병원으로 이송됐다. 그는 “갑자기 어깨에서부터 온몸이 가라앉는 것 같은 기분이 들었다. 나중에는 숨을 쉴 수도 없었다”라고 말했다.의료진은 당시 약물 과다 복용과 비슷한 증상을 보였다고 주장했다. 렌과 그녀의 남편은 지폐에 펜타닐이 묻은 것 같다고 주장했고, 경찰 역시 이 부분에 초점을 두고 조사를 진행했다. 조사 결과 지폐에서 펜타닐 성분은 검출되지 않았지만 경찰 측은 유사한 사건이 미국 각주에서 보고되고 있는 만큼 우려의 목소리를 높였다.“출처 불분명 물체 조심하세요”테네시주 당국은 최근 현금에서 합성 오피오이드 펜타닐이 발견된 두 건의 개별 사건을 보고한 후 출처가 불분명한 달러 지폐를 집는 것에 대해 위험하다고 알렸다.지역 주유소 바닥에서 발견된 달러 지폐에서는 백색 가루 물질이 발견됐고, 검사 결과 메스암페타민과 펜타닐에 양성 반응을 보였다는 것이다.펜타닐의 치사량은 2mL로 추정, 적은 양으로도 접촉하는 사람을 죽일 수 있는 악마의 약물이다. 헤로인의 100배, 모르핀보다 200배 이상 더 강력한 것으로 알려졌다. 메스암페타민은 중추 신경을 강력하게 흥분시키는 각성제로 흔히 ‘히로뽕, 필로폰’이라고 불리는 마약이다.보안관실은 “가족, 지인들에게 꼭 이 사실을 공유해달라. 회사, 놀이터 등에서 종종 보이는 지폐를 조심하라”라며 문제의 지폐 사진을 공유했다. 또한 “누군가 돈을 마약 운반용 파우치로 사용하다 적발될 경우 처벌을 강화하는 법안을 추진할 계획”이라고 말했다.펜타닐 중독… 사망사고 증가미국 질병통제예방센터(CDC) 통계에 따르면 미국에서 현재 펜타닐 관련 사망자 10명 중 4명은 코카인이나 메스암페타민과 같은 각성제와 관련되어 있다. 각성제와 기타 약물 사용과 함께 이러한 사례가 많기 때문에 약물 혼합의 위험성에 대해 대중에게 교육과 홍보를 권장해야 한다는 것이다. 펜타닐 사망이 코로나19 대유행 기간 동안 가속화됐다.펜타닐은 매우 강력한 진통 효과와 진정 작용을 하는데 극심한 통증에 시달리는 환자의 경우라면 통증이 경감되는 정도에 그치지만 아픈 곳이 없는 일반인이 사용하면 신체의 엔도르핀 분비에 변화를 일으켜 강한 황홀감을 느끼게 한다. 단 한 번만 투약해도 중독될 정도로 펜타닐의 위험성은 크다. 황홀감이 사라지면 그 동안 느끼지 못했던 통증과 자극에 민감해져 약이 없이는 일상생활을 할 수 없는 상태가 되고 만다.김유민 기자[서울신문 다른기사 보러가기]☞ 해변에 버려진 女시체… ‘또’ 리얼돌이었다☞ 관저에서 키스를…‘광란의 파티’ 핀란드 총리 또 사과☞ 편의점주 폭행 후 “촉법소년” 조롱 중학생…반전 결말☞ “해수욕장서 165㎝ 남자아이 발가벗기고 샤워시키네요”☞ “저 춤 뭐야”…日 ‘굴욕감’ 문선민 ‘관제탑 세리머니’☞ 살인미수 뺑소니범, 국대 출신이 추격해 잡았다☞ 아파트 복도에서 사는 80대 여성...‘현대판 고려장’ 사연☞ ‘돈쭐’ 치킨집 사장님 “그날 이후 우울증 약 복용합니다”☞ “미친 아빠” 11살 아들 향해 테슬라 완전자율주행(영상)☞ “현수도 바다 빠뜨릴까”…이은해 문자, 법정서 공개됐다▶ 밀리터리 인사이드- 저작권자 ⓒ 서울신문사 -</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>에린 밈스(Erin Mims)는 최근 미국 텍사스주 휴스턴에 위치한 한 식당에서 남편과 생일파티를 마친 뒤 자동차 문 손잡이에 꽂힌 의문의 손수건을 만졌다가 응급실에 실려가야 했다.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -684,22 +763,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>IT/과학</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>아빠가 중고거래로 15만원에 산 '갤플립4'…알고보니 모형 '분통'</t>
+          <t>새 아이폰 예상가 237만원 '역대급'…"갤럭시로 갈아탄다"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220825n13453?mid=n1006</t>
+          <t>https://news.nate.com/view/20220825n03110?mid=n1006</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(온라인 커뮤니티 갈무리)(서울=뉴스1) 소봄이 기자 = 자식에게 손 빌리기 싫었던 한 남성이 직접 휴대전화 중고거래를 하려다가 전시용 모형을 15만원 주고 구입했다는 사연이 전해졌다.지난 24일 한 온라인 커뮤니티에는 '아빠가 당근마켓에서 플립4 사기당하셨는데 어떻게 해야 하나'라는 제목의 글이 올라왔다.글쓴이 A씨에 따르면, 그의 부친은 갤럭시S8 기종을 사용하고 있었다. 이에 A씨는 "최신 휴대전화로 바꾸라"고 설득했으나, 부친은 "지금 쓰는 게 좋다"며 휴대전화를 교체하지 않았다.A씨는 "원래 내가 휴대전화 사드리는데 아빠 딴에는 나한테 손 빌리는 게 싫으신 것 같다"며 "미루고 미루다 이번에 직접 휴대전화를 바꾸려고 하셨다"고 설명했다.평소 새 제품을 구매하기보다 중고 거래를 이용해 시세를 잘 모르던 부친은 '당근마켓'에 갤럭시 플립4 제품이 올라온 것을 보고 구매에 나섰다.판매자는 "갤럭시 Z 플립4 5G 핑크골드 레플리카(실물을 모방해 만든 복제품) 판매합니다"라며 전시용 모형을 15만원에 판매했다.부친은 상자 포장까지 돼 있어 의심 없이 직거래한 뒤 집에 돌아왔다가 진짜 휴대전화가 아니라 매장 전시용 모형이라는 사실을 알게 됐다. 그는 "글에 '핑크골드 레플리카'라고 적혀 있어서 모델 종류인 줄 알았다"고 말했다.또 부친은 휴대전화를 파는 걸 당연하게 생각해 판매자에게 "실제 휴대전화가 맞냐"는 질문도 하지 않았다고 한다.이에 대해 판매자는 "모형인 거 제목이랑 사진에 다 명시돼 있는데 착각한 사람 잘못이지, 난 잘못 없다"며 "상식적으로 최신 휴대전화 중고가 15만원인 게 말이 되냐. 이 가격을 보고 휴대전화를 파는 거로 생각하는 사람이 이상한 것"이라고 환불을 거부했다.이를 두고 A씨는 "모형이라는 표식은 마지막 사진 맨 밑에만 깨알같이 적혀 있다"며 "나머지는 다 휴대전화를 접은 상태로 찍은 사진"이라고 황당해했다.그러면서 "애초에 저런 모형이 15만원씩이나 하냐. 누가 봐도 어르신들처럼 잘 모르는 사람들이 보기에 충분히 오해하게끔 낚으려고 한 것 같은데 사기죄로 성립 안 되냐"고 분노했다.이와 관련 누리꾼들은 "판매자가 다 적어놨으니 사기 아니다. 구매자가 부주의했던 것"이라고 봤다. 이들은 "당근마켓 자주 하신다면서 휴대전화 시세 모르는 게 말이 되냐", "최신 휴대전화를 싸게 사려다가 제대로 확인 안 하고 산 게 문제", "판매자를 사기꾼으로 몰아가는 건 너무 했다" 등의 반응을 보였다.일부 누리꾼들은 "어르신들은 착각할 만하다. 모형이라는 걸 강조했으면 더 좋았을 것 같다"며 안타까워했다.한편 중고거래를 통해 물건을 구입한 경우 '전자상거래 등에서의 소비자보호에 관한 법률'이 적용되지 않는다. 따라서 구매자가 단순변심으로 인해 환불을 요구해도 판매자가 환불을 해주지 않아도 된다.특히 상품을 판매할 때 '하자가 있어도 환불이 어렵다'고 알렸거나 구매자의 부주의로 제품이 망가진 경우에는 더욱 환불이 어렵다.sby@news1.krCopyright ⓒ 뉴스1. All rights reserved. 무단 전재 및 재배포 금지.뉴스1 관련뉴스☞ "고민정 누나, 경찰소개로 만나" 개그맨 김영민 영상 무혐의 ☞ 송갑석 "이재명, 최고 후보 4명 줄세워 다녀…노골적 비정상" ☞ 尹 동선, 김 여사 팬카페 유출…정우택 "또 터지면 치명타"☞ 박지원 "곧 檢소환될 듯…포렌식 마친 폰 돌려주는 걸 보니"☞ '열애설' 뷔·제니, 이번엔 집 데이트 사진?</t>
+          <t>환율 뛰는데 아이폰14 어떻게 사나…예상가 237만원 '역대급''애플 충성층' 2030여성, 갤럭시로 갈아탄다…반사이익 기대애플 '아이폰14' 시리즈. 사진=폰아레나 캡쳐최근 원·달러 환율이 급등하면서 올 9월 출시될 애플의 아이폰14가격이 사상 최고가로 인상될 것이란 전망이 나오고 있다. 고가 정책을 고수하고 있는 애플이 신제품 가격을 인상할 것으로 예상되면서 국내 소비자들의 부담은 커질 것으로 보인다.환율 뛰는데 아이폰14 어떻게 사나…예상가 237만원 '역대급'25일 업계에 따르면 전날 원·달러 환율은 달러당 1342.10원에 거래를 마쳤다. 지난 23일 장 중 연고점(달러당 1346.60원)을 찍은 환율은 달러당 1345.50원에 거래를 마쳐 13년4개월 만에 가장 높은 수준을 기록하는 등 최근 연일 급등세를 보이고 있다. 환율이 치솟자 정보기술(IT)업계에서는 다음달 출시 예정인 아이폰14 가격 상승이 불가피할 것이란 전망이 나오고 있다. 애플은 명확한 가격 책정 기준을 밝히고 있지 않지만, 대체적으로 미국 출고가를 기준으로 환율과 관세율 등을 고려해 국가별 제품 가격을 매기는 것으로 알려졌다. 최근 일본의 경우 최근 엔화가치가 떨어지자 지난달 아이폰 가격을 최대 20% 인상했다. 미국 현지 판매 가격에는 별다른 변화가 없었다는 점에서 환율을 고려한 조치로 판단된다.사진=한경DB과거 국내 아이폰 가격도 환율을 반영한 것으로 추측되는 사례가 적지 않다. 2019년 아이폰11 출시 당시 애플은 이례적으로 주요 출시국에서 제품 가격을 낮췄는데, 한국 출시가격은 그대로 유지했다. 전작인 아이폰XR 출시 이후 원화 가치가 5.7% 하락해 업계에서는 환율이 영향을 미쳤을 것으로 분석했다.지난 1년 사이 국내 원·달러 환율은 달러당 1167.50원(작년 8월24일 종가 기준)에서 이달 24일까지 1342.10원으로 무려 174.60원이나 급등했다. 이처럼 원화 가치가 크게 떨어지면서 올 9월 출시될 아이폰14 국내 판매가격도 전작보다 20만원대 안팎으로 비싸질 것으로 예상되고 있다.현재 국내 아이폰13과 아이폰13 프로의 국내 출고가(256GB 기준)는 각각 122만1000원, 147만4000원이며 최상위 모델인 아이폰13프로맥스는 217만원(1TB 기준)이다. 업계에서는 아이폰14프로의 가격은 169만원(256GB 기준)에서 223만원(1TB 기준), 아이폰14프로맥스는 최고 237만원(1TB 기준)까지 인상될 것으로 예상하고 있다. 최근 원자재 가격 인상으로 미국 현지 출고가도 올라갈 것이란 예상이 나오고 있어 이같은 전망에 무게가 실리고 있다.23일 오후 서울 종로구 KT플라자 광화문역점에 삼성전자의 신제품 폴더블폰 '갤럭시Z폴드4'(폴드4)와 '갤럭시Z플립4'(플립4)가 전시돼 있다. 사진=뉴스1'애플 충성층' 2030여성, 갤럭시로 갈아탄다…반사이익 기대애플 전문 분석가 궈밍치도 최근 아이폰14 시리즈의 평균판매단가(ASP)가 전작보다 약 15% 상승할 것이란 예상을 내놨다. 아이폰 예상 가격이 전해지자 애플 충성 소비자들은 "너무 비싸 사지 않을 것" "올해 건너뛰고 내년에 사겠다" "눈물 머금고 전작을 구매할 것" 등 부담스럽다는 반응을 내놓고 있다.아이폰14 가격 상승이 기정사실화 되면서 경쟁사 삼성전자 갤럭시Z폴드4·플립4의 반사이익 기대감이 커지고 있다. 삼성전자가 지난 10일 내놓은 신작 갤럭시Z폴드4 가격은 256GB 기준 199만8700원으로 동결했다. Z플립4의 경우 135만3000원으로 전작보다 9만9000원(256GB 기준) 올리는 데 그쳤다. 원자재값 상승, 물류비 증가 등 인플레이션 압박을 고려하면 가격 인상 폭이 합리적이여서, 구매 수요를 자극할 것으로 예상된다.실제로 최근 갤럭시Z폴드4·플립4의 판매는 사전 예약 판매량이 100만대에 육박하며 양호한 성적을 보이고 있다. 하반기 녹록지 않은 환경속에 연 판매 1000만대 목표가 현실화될 것이란 기대가 커지고 있다. 업계 관계자는 "최근 아이폰을 선호하는 MZ세대, 특히 2030 여성 고객 사이에서 플립4의 판매가 돋보이고 있다는 점은 고무적"이라며 "아이폰 가격 인상이 확실시 되면 갤럭시Z폴드4·플립4의 반사이익이 기대된다"고 말했다.조아라 한경닷컴 기자 rrang123@hankyung.com ▶ 해외투자 '한경 글로벌마켓'과 함께하세요▶ 한국경제신문과 WSJ, 모바일한경으로 보세요 관련기사전 세계서 '압도적 꼴찌'…한국에 무슨 일이'수면 부족' 이렇게 무섭습니다…1시간만 덜 자도"K-믹스커피는 못참지"…맥심의 꿈 '바톤 터치'"이렇게 좋을 줄은"…강남 엄마들이 돈 버는 법쌍둥이도 아닌데 얼굴 닮았다면…몰랐던 사실</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>원·달러 환율이 급등하면서 올 9월 출시될 애플의 아이폰14가격이 사상 최고가로 인상될 것으로 예상되면서 국내 소비자들의 부담은 커질 것으로 보인다.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>환율</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>한 나라의 화폐와 외국 화폐의 교환 비율</t>
         </is>
       </c>
     </row>
@@ -711,294 +805,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>IT/과학</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"아저씨 두개골 깨버리자" 말에 초등생 때려…훈계인가 폭행인가</t>
+          <t>"영하 86도, 아직 살아 있어요"…화성 헬리콥터, 두 달 만에 비행</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220825n02519?mid=n1006</t>
+          <t>https://news.nate.com/view/20220824n06451?mid=n1006</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>스마트이미지 제공모욕적인 말을 들었다며 초등학생을 때린 50대 남성이 '훈계'였다고 주장했지만 법원은 '폭행'이었다는 판단을 내렸다. 다만 항소심에서는 일부 감형이 됐다.대전지법 형사항소2부(최형철 부장판사)는 A(52)씨에 대한 항소심에서 벌금 200만 원을 내린 원심을 파기하고 벌금 100만 원을 선고했다.A씨는 지난 2020년 5월 10일 대전의 한 아파트 풋살장에서 초등학생인 B(12)군 등과 함께 축구를 하며 골키퍼를 맡았다.이때 B군이 "아저씨 두개골을 깨버리자"고 말했고, 화가 난 A씨는 B군을 향해 축구공을 걷어차고 손날로 양쪽 쇄골 부분을 4차례 때린 혐의로 재판에 넘겨졌다.재판 과정에서 A씨 측은 "훈계 차원에서 손가락 부분으로 쇄골 부위를 가볍게 친 것이고, 피해자의 잘못된 언행을 훈계하려는 과정에서 신체적 접촉이 있었더라도 이는 사회상규에 위배되지 않는 정당행위에 해당한다"고 주장했지만 재판부는 받아들이지 않았다.1심에서는 "피고인이 만 12세에 불과한 피해자에게 상해를 가했다"며 벌금 200만 원이 선고됐고 A씨는 이에 불복해 항소했다.항소심 재판부는 "피고인이 폭행한 주된 동기나 목적이 피해자 훈계에 있었다기보다 자신의 분노를 표출하는 데 있었던 것으로 보이므로 그 동기나 목적의 정당성을 인정할 수 없다"며 "설령 피고인에게 피해자를 올바른 사회인으로 계도하려는 목적이 있었다 하더라도 아동복지법의 취지에 비춰볼 때 피고인의 행위를 훈계를 위한 상당한 수단으로 보기는 어렵다"고 말했다.다만 기소 당시 '피해자에게 약 2주간의 치료가 필요한 상해를 가했다'는 부분에 대해, 항소심에서는 "피고인의 폭행으로 인한 상처는 극히 경미한 것으로서 굳이 치료할 필요 없이 자연적으로 치유되며 일상생활을 하는 데 아무런 지장이 없는 경우에 해당한다"고 판단했다. A씨에 대해서도 당초 적용된 상해가 아닌 폭행죄가 인정됐다.항소심 재판부는 "피해자가 피고인에게 심한 말을 해 피고인의 분노를 유발한 측면이 있고 피고인이 초범인 점 등을 양형에 함께 고려했다"고 덧붙였다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn대전CBS 김정남 기자 jnkim@cbs.co.kr▶ 기자와 카톡 채팅하기▶ 노컷뉴스 영상 구독하기[ 노컷뉴스 주요뉴스 ]- [단독]아파트 9층서 집기던진 20대 男, 하마터면…주민들 "재발, 두렵다"- 尹 '대외비' 경호 일정 유출 논란 …경호처 '경위 파악'- [르포]5년 간 화재만 '3번'…피해 상인들 '망연자실'- 청년도 노인도 불행한 '인구 디스토피아'- 형제복지원, "국가에 의한 인권 침해"…피해자 트라우마 치료 시급</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>개만도 못한 인간의 악행…목숨 살린 복순이, 주인이 보신탕집에 넘겼다</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://news.nate.com/view/20220825n21466?mid=n1006</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[서울신문]“뇌졸중으로 쓰러진 주인을 살려 마을에서 예쁨받던 복순이였는데 어쩌다가…”전북 정읍시 한 마을에서 주인을 구한 충견이 신체가 훼손된 채 보신탕집으로 넘겨져 공분을 사고 있다.25일 전북 정읍경찰서와 동물보호단체 등에 따르면 지난 24일 오후 2시쯤 코와 젖꼭지가 잘린 강아지가 지나가던 행인에 의해 발견됐다.삽살개 종으로 보이는 이 강아지는 발견 당시 길 위에 많은 피를 흘리고 있었다.강아지는 지난 23일 밤부터 다음날 새벽 사이 잔혹하게 학대를 당한 것으로 추정되고 있다.이름이 복순이로 추정되는 이 강아지에 대해 동물보호단체는 “주인이 뇌졸중으로 쓰러졌을 때 크게 짖어서 목숨을 살렸다”며 “마을에서 유명한 강아지였다”고 말했다.단체 관계자는 “목줄에 묶여 아무런 저항도 못 하고 학대받았을 강아지를 생각하면 마음이 아프다”고 전했다.이후 복순이는 누군가에 의해 보신탕집에 넘겨졌다.비싼 치료비 부담에 주저하던 주인이 복순이를 도축업체에 넘긴게 아니냐는 의혹이 나오고 있다.동물보호단체인 비글구조네트워크의 확인 결과 주인이 복순이를 동물병원으로 데리고 간 사실이 밝혀졌기 때문이다.단체는 강아지 학대범을 찾아달라며 경찰에 신고했다.또 보신탕집으로 넘겨진 복순이의 사체를 찾아온 뒤 이날 화장을 마쳤다.경찰은 주변 CCTV 등을 토대로 강아지 학대범 특정에 나설 계획이다.전주 설정욱 기자[서울신문 다른기사 보러가기]☞ 해변에 버려진 女시체… ‘또’ 리얼돌이었다☞ “93년생 女유튜버, 대학 교수로 부임”…어떤 학과?☞ 편의점주 폭행 후 “촉법소년” 조롱 중학생…반전 결말☞ 할머니 폐지 수레 넘어지자…차에서 달려나온 두 사람☞ “저 춤 뭐야”…日 ‘굴욕감’ 문선민 ‘관제탑 세리머니’☞ ‘광란의 파티’ 핀란드 총리 “나도 인간… 재미가 그리워”☞ “해수욕장서 165㎝ 남자아이 발가벗기고 샤워시키네요”☞ 관저에서 키스를…‘광란의 파티’ 핀란드 총리 또 사과☞ “미친 아빠” 11살 아들 향해 테슬라 완전자율주행(영상)☞ ‘고민정, 尹지지’ 영상 올렸다가 고소당한 개그맨 무혐의▶ 밀리터리 인사이드- 저작권자 ⓒ 서울신문사 -</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>"곽상도 아들, 화천대유서 월150만원 법인카드·사택·차량 지원 받아"</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://news.nate.com/view/20220825n01756?mid=n1006</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>화천대유 전직 임원 양모씨, 곽상도 재판 증인 출석해 법정 증언대장동 개발과 관련해 도움을 주고 아들의 퇴직금 명목으로 50억원을 받았다는 의혹이 제기되며 이른바 '화천대유 50억 클럽'으로 거론된 곽상도 전 국민의힘 의원이 지난 2월 4일 오전 서울 서초구 서울중앙지방법원에서 영장실질심사(구속전피의자심문)에 출석하고 있다. ⓒ데일리안 홍금표 기자곽상도 전 국회의원의 아들 병채씨가 화천대유자산관리(화천대유)에 근무하면서 법인카드·사택·차량 등의 혜택을 받았다는 법정 증언이 나왔다.24일 서울중앙지법 형사합의22부(이준철 부장판사) 심리로 열린 곽 전 의원과 화천대유 대주주 김만배 씨, 남욱 변호사의 공판에 증인으로 출석한 화천대유 전직 임원 양 모씨는 이같이 밝혔다.곽 전 의원 측 변호인은 "화천대유에서 임직원에게 제공한 사택이 3채 정도있다. 박 모씨, 윤 모씨 그리고 곽씨 이렇게 세 명에게 제공해줬다"며 "증인은 화천대유에서 임직원에게 사택을 제공했다는 사실에 대해 알고 있었나"라고 물었다.그러자 양 씨는 "몰랐다. (곽 씨가 거주하던 곳이 회사에서 제공한) 사택이었는지 잘 모르고 있었다"고 답했다. 그러면서 양 씨는 "화천대유가 (곽 씨를 포함한 3명의 임직원들과) 임차계약을 하고 이들에게 사택을 제공했다는 사실은 나중에 알게 됐다"고 부연했다.양 씨는 "곽 씨는 월 150만원 한도에 해당하는 법인카드를 사용했다"며 "대부분 임직원들이 곽 씨에게 심부름을 시켰고, (곽 씨는) 외부인들과 미팅하는 경우가 많았기 때문이다. 그래서 (곽 씨가) 법인카드를 사용했을 것으로 생각한다"라고 증언했다.곽 씨가 화천대유로부터 차량 제공을 받았다는 진술도 나왔다. 양 씨는 "곽 씨는 현장업무를 주로 담당하고 있어서 차량을 제공받았던 것으로 안다"며 "아마도 곽 씨가 대장동과 제1공단 그리고 성남시청을 왔다갔다 해야 해서 그런 것으로 안다"고 전했다.양 씨는 곽 씨가 '50억 성과급'을 받게된 경위에 대해서도 대략적으로 알고 있었다고 증언했다. 그는 "김만배와 이성문은 (화천대유 직원들이) 성과급 계약을 하기 이전부터 최소 5억원의 성과급을 주겠다고 했다"며 "특히 김만배는 고생한 직원들에게 (화천대유의) 수익을 공유하길 바랬다"고 말했다. 양씨는 이어 "이성문 대표는 회사에서 직원 개개인에게 근무성과 양식표를 나눠주며, 작성하라고 했다"며 "제출한 자료를 바탕으로 성과에 대해 임원들이 판단한 후 성과급을 결정했다"고 설명했다.이날 법정에선 곽 씨가 화천대유를 퇴사하던 전후 상황에 대한 이야기도 나왔다.양 씨가 검찰에 출석해 조사받았던 진술조서에 따르면, 곽 씨는 어느 날 사무실 책상 위에 업무 관련 서류 전체를 올려놓은 채로 정상 출근을 하지 않았다고 한다. 담당하던 업무가 많았던 곽 씨는 인수인계 절차를 원활히 하지 않은 것으로 전해졌다. 이와 관련해 양 씨는 "곽 씨가 담당하던 업무를 파악하는 데만 2개월이 넘게 걸렸다. (곽 씨는) 이메일로 간략하게만 인수인계를 했다"고 전했다.곽 전 의원 측 변호인은 곽 씨의 정신건강의학과 진료 기록부를 제시하며 사직서를 제출한 이후의 상황에 대해 알고 있었느냐고 캐물었다.변호인은 "곽 씨의 진료기록에는 '했던 일이 많아서 인수인계를 해야 할 것 같다' '병가를 냈지만 쉬는 게 쉬는 것이 아니다' '이번 주 중에는 회사를 정리하고 제주도에 가 있으려고 한다' 등의 내용이 기재되어 있다"며 "화천대유 대표였던 이성문 씨 역시 법정에서 곽 씨가 사직서를 제출한 후에도 인수인계로 출근했다고 밝혔다. 곽 씨가 증인 말고 다른 임직원에게 (업무 관련된 내용을) 인수인계한 것에 대해 알고 있느냐"고 물었다. 이에 양 씨는 "모른다"며 짧게 답했다.한편, 곽 전 의원은 2015년 대장동 사업에 참여한 화천대유가 하나은행과 컨소시엄을 구성하는 데 도움을 준 대가로, 화천대유에서 근무한 아들을 통해 퇴직금 등 명목으로 지난해 4월 말 50억원(세금 제외 25억원)을 챙긴 혐의(특정범죄가중처벌법의 뇌물)로 재판에 넘겨졌다. 20대 총선 무렵인 2016년 3∼4월께는 남욱 변호사로부터 불법 정치자금 5000만원을 수수한 혐의도 받고 있다.데일리안 이태준 기자 (you1st@dailian.co.kr)- Copyrights ⓒ (주)데일리안, 무단 전재-재배포 금지 -관련기사☞'곽상도 코로나 확진' 허위글 올린 시사평론가, 무죄 확정☞화천대유 대표, 곽상도 아들에 50억 주고도 병명 몰랐다</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>세계</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>'사망선고' 받았다가 장례식장서 눈뜬 3살 아이…결국 영면</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://news.nate.com/view/20220825n12527?mid=n1006</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>카밀라 록사나 마르티네즈 멘도자. [트위터][헤럴드경제=김유진 기자] 사망선고를 받은 멕시코의 3살 아이가 장례식장에서 눈을 떴지만 끝내 숨지는 사건이 발생했다.24일(현지시각) 미국 뉴욕포스트 등은 멕시코 산 루이스 포토시의 세 살 소녀 카밀라 록사나 마르티네즈 멘도자가 의사들의 실수로 사망선고를 받은 뒤 깨어났지만 결국 사망했다고 보도했다.카밀라는 멘도자는 지난 17일 복통과 구토, 고열 등 증상으로 어머니 메리 제인 멘도자와 함께 동네 소아과를 찾았다. 의사의 권고에 따라 탈수증 치료를 위해 종합병원으로 옮긴 뒤 치료를 받고 진통해열제를 처방받아 병원에서 퇴원했다. 퇴원 이후에도 카밀라의 증세는 악화돼 같은 날 오후 10시께 다시 병원 응급실에 입원했다. 의료진은 카밀라를 어머니와 떨어뜨려 놓았고, 이후 아이가 탈수증으로 사망했다고 선고했다.모친 멘도자는 “침대에 누워있던 아이를 안아 올리자 아이도 나를 안고 있는 것 같았다”면서 “의료진이 내게서 카밀라를 데려가면서 ‘편히 쉴 수 있도록 해야 한다’고 말했다”고 회상했다.사망선고를 받은 카밀라의 장례식은 바로 다음날 열렸다. 이때 엄마의 눈에 들어온 건 관을 덮은 유리에 찬 뿌연 습기였다. 카밀라의 할머니도 카밀라의 눈이 움직이는 것을 목격했다. 이들은 카밀라를 관 밖으로 꺼내 아이의 맥박이 살아있음을 확인했다.가족들은 급히 카밀라를 구급차에 실어 병원으로 이송했지만 카밀라는 뇌부종으로 끝내 숨을 거뒀다.멘도자는 “많은 사람들에게 카밀라는 소중한 존재였다”며 “내가 진정 원하는 것은 정의가 실현되는 것이다. 의사들에게는 원한이 없지만, 다시는 이런 일이 발생하지 않도록 바뀌어 주기를 부탁한다”고 했다. 매체에 따르면 산 루이스 포토시주 당국은 해당 사건을 조사와 카밀라에 대한 부검을 진행 중이라고 전했다.kacew@heraldcorp.com[베스트 클릭! 헤럴드 경제 얼리어답터 뉴스] ▶ 文 “돌아만 봐도 복받을 것 같다” 빗속 뚫고 찾은 ‘이곳’ ▶ 깻잎에 모래가 '양념'처럼...중국산 깻잎김치 담배꽁초 이어 또 ▶ 텅빈 주차장 입구 막은 연두색車…"연락도 안돼" 무개념에 분노 ▶ ‘이상한 변호사 우영우’의 팽나무, 천연기념물 된다 ▶ “김우빈 지겹게 나온다 싶더니” 수백억 펑펑 ‘이곳’ 이런일이 ▶ “싼 출연료 ‘이 분’ 얕잡아 봤다가” 2천억 넷플릭스 대작 ‘망신살’ ▶ “예비군 동대장, 상근예비역 배우자에 ‘모유 먹여라’ 성희롱 발언” ▶ 뷔·제니 열애설 다시 불지핀 ‘이 사진’…소속사는 묵묵부답 ▶ 택시로 착각해 차 탄 할아버지 집까지 모시느라…면접 30분 늦은 사연 ▶ “3억 계약금 포기합니다”…집값 급락에 강남 재건축마저 계약 파기 [부동산360]Copyright ⓒ 헤럴드경제 All Rights Reserved.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>세계</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>"절대 만지지 마세요"…지폐·휴지 집었다가 '전신마비'</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://news.nate.com/view/20220825n02610?mid=n1006</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[서울신문]길에 떨어진 지폐를 주웠다가 ‘전신마비’를 겪은 여성의 사연이 알려져 충격을 준 가운데, 유사한 사건이 또 다시 발생했다.24일(현지시간) 뉴욕포스트·NBC 등에 따르면 에린 밈스(Erin Mims)는 최근 미국 텍사스주 휴스턴에 위치한 한 식당에서 남편과 생일파티를 마친 뒤 자동차 문 손잡이에 꽂힌 의문의 손수건을 만졌다가 응급실에 실려가야 했다.에린은 당시 집으로 가기 위해 차 문을 열려다 손잡이에 걸쳐져 있는 수상한 냅킨 하나를 발견하고, “당신이 손잡이에 냅킨 꽂아뒀어?”라고 물었지만 남편은 “모른다”고 답했다. 출처를 알 수 없는 냅킨이 수상하긴 했지만 그냥 누군가 버려둔 쓰레기 정도로 생각한 에린은 맨손으로 냅킨을 잡아 던졌다. 이후 혹시 모를 사태에 대비해 손소독제로 손을 씻고 차에 올라탔다.그런데 2분이 채 지나지 않아 냅킨을 만졌던 손가락 끝쪽이 따끔거렸고, 5분이 지나자 팔 전체 감각이 무뎌지고 숨이 턱턱 막히기 시작했다. 에린은 “현기증이 나면서 숨을 쉬기 어려웠고, 온 몸에서 열이 나는 것 같았다”며 “곧장 남편에게 도움을 청해 응급실로 향했다”고 당시를 회상했다.병원으로 이송된 에린은 응급치료를 받았고, 검사 결과 ‘급성 약물 중독’ 진단을 받았다. 의료진은 “체내에서 검출된 양이 너무 적어 약물의 정체를 찾아내기 쉽지 않았다”면서도 “다만 중독성이 있는 물질이 원인으로, 아마도 납치를 노리고 독이 묻은 냅킨을 사용했을 가능성이 있다”고 설명했다.휴스턴 경찰 역시 “피해자의 증상은 다양한 독극물에 의한 중독 증상과 일치한다”고 시민들에게 조심할 것을 당부했다. 에린은 자신이 당한 끔찍한 경험을 SNS 공유하며 많은 사람들에게 유사 사건에 각별히 주의할 것을 경고했다.1달러 지폐 주웠다가 호흡곤란시민들은 지난달 바닥에 떨어진 1달러짜리 지폐를 주웠다가 전신마비 증상을 겪은 여성의 사연을 떠올렸다.켄터키주에 살고 있는 이 여성 역시 화장실 앞에 떨어진 1달러 지폐를 주웠다가 호흡곤란과 함께 온몸이 마비되는 증상을 겪었고, 병원으로 이송됐다. 그는 “갑자기 어깨에서부터 온몸이 가라앉는 것 같은 기분이 들었다. 나중에는 숨을 쉴 수도 없었다”라고 말했다.의료진은 당시 약물 과다 복용과 비슷한 증상을 보였다고 주장했다. 렌과 그녀의 남편은 지폐에 펜타닐이 묻은 것 같다고 주장했고, 경찰 역시 이 부분에 초점을 두고 조사를 진행했다. 조사 결과 지폐에서 펜타닐 성분은 검출되지 않았지만 경찰 측은 유사한 사건이 미국 각주에서 보고되고 있는 만큼 우려의 목소리를 높였다.“출처 불분명 물체 조심하세요”테네시주 당국은 최근 현금에서 합성 오피오이드 펜타닐이 발견된 두 건의 개별 사건을 보고한 후 출처가 불분명한 달러 지폐를 집는 것에 대해 위험하다고 알렸다.지역 주유소 바닥에서 발견된 달러 지폐에서는 백색 가루 물질이 발견됐고, 검사 결과 메스암페타민과 펜타닐에 양성 반응을 보였다는 것이다.펜타닐의 치사량은 2mL로 추정, 적은 양으로도 접촉하는 사람을 죽일 수 있는 악마의 약물이다. 헤로인의 100배, 모르핀보다 200배 이상 더 강력한 것으로 알려졌다. 메스암페타민은 중추 신경을 강력하게 흥분시키는 각성제로 흔히 ‘히로뽕, 필로폰’이라고 불리는 마약이다.보안관실은 “가족, 지인들에게 꼭 이 사실을 공유해달라. 회사, 놀이터 등에서 종종 보이는 지폐를 조심하라”라며 문제의 지폐 사진을 공유했다. 또한 “누군가 돈을 마약 운반용 파우치로 사용하다 적발될 경우 처벌을 강화하는 법안을 추진할 계획”이라고 말했다.펜타닐 중독… 사망사고 증가미국 질병통제예방센터(CDC) 통계에 따르면 미국에서 현재 펜타닐 관련 사망자 10명 중 4명은 코카인이나 메스암페타민과 같은 각성제와 관련되어 있다. 각성제와 기타 약물 사용과 함께 이러한 사례가 많기 때문에 약물 혼합의 위험성에 대해 대중에게 교육과 홍보를 권장해야 한다는 것이다. 펜타닐 사망이 코로나19 대유행 기간 동안 가속화됐다.펜타닐은 매우 강력한 진통 효과와 진정 작용을 하는데 극심한 통증에 시달리는 환자의 경우라면 통증이 경감되는 정도에 그치지만 아픈 곳이 없는 일반인이 사용하면 신체의 엔도르핀 분비에 변화를 일으켜 강한 황홀감을 느끼게 한다. 단 한 번만 투약해도 중독될 정도로 펜타닐의 위험성은 크다. 황홀감이 사라지면 그 동안 느끼지 못했던 통증과 자극에 민감해져 약이 없이는 일상생활을 할 수 없는 상태가 되고 만다.김유민 기자[서울신문 다른기사 보러가기]☞ 해변에 버려진 女시체… ‘또’ 리얼돌이었다☞ 관저에서 키스를…‘광란의 파티’ 핀란드 총리 또 사과☞ 편의점주 폭행 후 “촉법소년” 조롱 중학생…반전 결말☞ “해수욕장서 165㎝ 남자아이 발가벗기고 샤워시키네요”☞ “저 춤 뭐야”…日 ‘굴욕감’ 문선민 ‘관제탑 세리머니’☞ 살인미수 뺑소니범, 국대 출신이 추격해 잡았다☞ 아파트 복도에서 사는 80대 여성...‘현대판 고려장’ 사연☞ ‘돈쭐’ 치킨집 사장님 “그날 이후 우울증 약 복용합니다”☞ “미친 아빠” 11살 아들 향해 테슬라 완전자율주행(영상)☞ “현수도 바다 빠뜨릴까”…이은해 문자, 법정서 공개됐다▶ 밀리터리 인사이드- 저작권자 ⓒ 서울신문사 -</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>세계</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>NASA 블랙홀 소리 공개…'오싹' '천상의 아름다움' 평가 엇갈려</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://news.nate.com/view/20220824n17192?mid=n1006</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2억4천만 광년 떨어진 페르세우스 은하단서 확보…음향화 보정 거쳐 NASA Data Sonification: Black Hole Remix[NASA 트위터 캡처 재판매 및 DB 금지] (서울=연합뉴스) 신재우 기자 = 미국 항공우주국(NASA)이 처음으로 '블랙홀의 소리'(https://twitter.com/NASAExoplanets/status/1561442514078314496)를 공개했다. 심연의 우주를 귀로 체험한 대중은 '오싹하다', '천상의 아름다움이다' 등 다양한 감상평을 내놓고 있다NASA는 22일(현지시간) 트위터에 지구에서 약 2억4천만 광년 떨어진 페르세우스 은하단의 중심에 있는 블랙홀 음향을 담은 34초 분량의 영상을 올렸다. 무서운 느낌의 바람 소리나 괴물 신음을 연상케 하는 이 음향은 온라인상에서 큰 관심을 끌었다.NASA는 앞서 5월 유튜브에 같은 영상을 올렸는데 당시 설명에서 "우주에 소리가 없다는 세간의 오해는 우주 대부분이 기본적으로 진공이고 음파를 전달할 매질이 없다는 사실에서 비롯됐다"며 "하지만 은하단에는 수백 또는 수천 개의 은하를 둘러싸고 있는 엄청난 양의 가스가 있어 음파 전달체를 제공한다"고 밝혔다. 블랙홀 소리 데이터는 약 20년 전인 2003년에 NASA의 찬드라 X선 관측소의 천문학자들이 파악했다. 이후 연구자들은 블랙홀에서 방출한 압력파가 은하단의 뜨거운 가스에 잔물결을 일으키고, 이것이 음으로 변환될 수 있다는 사실을 발견했다. NASA는 음향화 작업을 통해 사람이 들을 수 있는 소리를 만들어보기로 했으며, 음향 신호를 57, 58 옥타브로 조정함으로써 사람의 청력 범위 안에서 소리를 재합성할 수 있었다고 설명했다. 워싱턴포스트(WP)에 따르면, 전문가들은 NASA의 블랙홀 소리가 실제 블랙홀 옆에 있을 때 들을 수 있는 소리와 완전히 일치하지는 않는다고 지적했다.영국 켄트대 마이클 스미스 교수는 "인간의 귀가 그런 음파를 감지할 정도로 민감하지는 않다"며 "그곳에 음파가 있다고 말하는 것은 완전히 합리적이지만, 우리가 들을 수 있으려면 많은 가정을 해야 한다"고 말했다. 블랙홀 소리에 대한 반응은 다양했다.음향화 프로젝트를 지휘한 킴벌리 아르칸드는 영화 글래디에이터 등에 참여한 유명 작곡가인 한스 짐머를 언급하며 블랙홀 소리를 '기분 수준을 완전히 높여주는 한스 짐머의 아름다운 음악'이라고 묘사했다. 트위터 등에서는 '정말로 아름답다'는 평가와 함께 'NASA가 내놓은 블랙홀 소음이 지옥의 소리임을 확신한다', '방금 나온 새로운 장르:우주 호러'라는 반응도 있었다.    withwit@yna.co.kr(끝)[이 시각 많이 본 기사]☞ '기러기, 토마토' 대신 'Kayak, deed'…우영우 영어 더빙은☞ '대외비' 일정 버젓이…김여사 팬클럽, 이번엔 尹동선 유출☞ 이재명 "아내가 공무원에게 사적 도움받은 점 깊이 사죄"☞ '흉기난동 부실대응' 전직 경찰관 2명 해임취소 소송☞ 핀란드 총리 또 사과…관저에서 친구들 부적절 사진 유출☞ 탁현민 "靑서 촬영된 화보에 日 아방가르드 디자이너 작품도"☞ NASA 블랙홀 소리 공개…'오싹' '천상의 아름다움' 평가 엇갈려☞ 2년쓴 세라믹식탁 갑자기 '펑'…강화유리 산산조각☞ 30대 엄마가 2살 자폐증 아들 살해 뒤 극단적 선택▶제보는 카카오톡 okjebo▶연합뉴스 앱 지금 바로 다운받기~&lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>세계</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>지구 반대편 똑닮은 얼굴 '도플갱어' 점점 늘어난다 왜?</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://news.nate.com/view/20220824n19146?mid=n1006</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>내 얼굴을 한 또다른 나, 도플갱어에 대한 흥미로운 연구 결과가 나왔다. 혈연관계가 전혀 없는 생판 남이라도 얼굴이 닮으면 유전자 염기서열이 유사하다는 것이다.23일 뉴욕타임스(NYT)에 따르면 스페인 조셉 카레라스 백혈병 연구소의 마넬 에스텔러 연구팀은 닮은꼴 32쌍의 얼굴과 생활방식, DNA염기서열을 분석했다. 연구결과는 같은 날 생물학 저널 '셀 리포츠'에 실렸다.연구대상이 된 32쌍의 사람들은 가족도 친척도 아닌 남남이다. 부모가 도미니카 공화국과 바하마 출신인 마이클 말론, 리투아니아와 스코틀랜드 출신 부모에게서 태어난 찰리 체이슨처럼 조상 뿌리도 모두 다르다. 연구진은 23년간 전세계의 닮은꼴 사진을 모아온 캐나다 사진가 프랑수아 브루넬로부터 외모가 흡사한 사람들의 정보를 얻었다.안면 인식 소프트웨어 분석결과 32쌍 중 16쌍은 일란성 쌍둥이와 유사한 점수를 받았다. 과학자들은 '쌍둥이급'도플갱어의 DNA를 비교했는데, 놀랍게도 외모의 유사성이 더 높은 사람들 16쌍이 나머지 16쌍보다 많은 유전자를 공유했다. 에스텔러 박사는 "더 비슷하게 생긴 사람들이 더 많은 공통 유전자를 갖고 있다는 것은 상식 같지만, 결코 증명된 적은 없다"고 설명했다.이번 연구결과는 유사한 DNA를 가진 일란성 쌍둥이가 양육 환경의 영향으로 다른 외모·습관을 갖게 된다는 기존 상식과는 정반대다. 아주 다른 환경에서 자라나더라도 유전적 특성이 유사하면 쌍둥이 같은 외모를 공유한다는 의미다. 인구가 증가할 수록 '같은 얼굴'을 한 사람들이 늘어날 가능성이 높아질 수 있다. 에스텔러 박사는 "이제 세상에는 시스템이 반복될 정도로 너무나 많은 사람들이 있다"면서 "나의 닮은 꼴이 어딘가 존재한다는 건 불합리한 가정이 아니다"라고 말했다.단 외모에는 DNA외에도 여러 가지 요인이 영향을 미친다. 연구진에 따르면 도플갱어들의 유전자는 비슷하지만 후성유전체(유전자 발현을 조절하거나 변형시키는 화학물질과 단백질 집합)와 마이크로바이옴(인체에 서식하는 미생물)이 달라 차이가 생긴다.연구진은 해당 연구를 향후 질병 진단에 활용할 수 있다고 기대했다. 외모가 유사한 사람들이 비슷한 유전자를 가지면, 특정 질병에 취약한 특징이 비슷할 것이라는 추측이 가능하다.다만 연구 대상 수가 36쌍에 불과해 모수가 적다는 점은 한계로 꼽힌다. 이번 연구결과만 가지고 법의학 등 다른 분야에 광범위하게 적용하기는 어렵다는 지적도 제기된다.[이유진 기자]▶ “돌고래가 사람을?” 일본에서 일어난 충격 사건▶ 민주당이 한동훈에게 판판이 깨지는 까닭은 [핫이슈]▶ "잘 때까지 기다렸다 원룸 여성 성폭행"…CCTV에 찍힌 소름끼치는 장면▶ 이번엔 관저서 여성 2명 윗옷 올린채 키스…핀란드 女총리 또 사과▶ 한전 부채 규모 삼성·현대차 제쳤다…국내 기업 중 1위 올라[매일경제 모바일 서비스 | 페이스북] [매일경제 구독신청] [오늘의 매일경제][ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>IT/과학</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>새 아이폰 예상가 237만원 '역대급'…"갤럭시로 갈아탄다"</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://news.nate.com/view/20220825n03110?mid=n1006</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>환율 뛰는데 아이폰14 어떻게 사나…예상가 237만원 '역대급''애플 충성층' 2030여성, 갤럭시로 갈아탄다…반사이익 기대애플 '아이폰14' 시리즈. 사진=폰아레나 캡쳐최근 원·달러 환율이 급등하면서 올 9월 출시될 애플의 아이폰14가격이 사상 최고가로 인상될 것이란 전망이 나오고 있다. 고가 정책을 고수하고 있는 애플이 신제품 가격을 인상할 것으로 예상되면서 국내 소비자들의 부담은 커질 것으로 보인다.환율 뛰는데 아이폰14 어떻게 사나…예상가 237만원 '역대급'25일 업계에 따르면 전날 원·달러 환율은 달러당 1342.10원에 거래를 마쳤다. 지난 23일 장 중 연고점(달러당 1346.60원)을 찍은 환율은 달러당 1345.50원에 거래를 마쳐 13년4개월 만에 가장 높은 수준을 기록하는 등 최근 연일 급등세를 보이고 있다. 환율이 치솟자 정보기술(IT)업계에서는 다음달 출시 예정인 아이폰14 가격 상승이 불가피할 것이란 전망이 나오고 있다. 애플은 명확한 가격 책정 기준을 밝히고 있지 않지만, 대체적으로 미국 출고가를 기준으로 환율과 관세율 등을 고려해 국가별 제품 가격을 매기는 것으로 알려졌다. 최근 일본의 경우 최근 엔화가치가 떨어지자 지난달 아이폰 가격을 최대 20% 인상했다. 미국 현지 판매 가격에는 별다른 변화가 없었다는 점에서 환율을 고려한 조치로 판단된다.사진=한경DB과거 국내 아이폰 가격도 환율을 반영한 것으로 추측되는 사례가 적지 않다. 2019년 아이폰11 출시 당시 애플은 이례적으로 주요 출시국에서 제품 가격을 낮췄는데, 한국 출시가격은 그대로 유지했다. 전작인 아이폰XR 출시 이후 원화 가치가 5.7% 하락해 업계에서는 환율이 영향을 미쳤을 것으로 분석했다.지난 1년 사이 국내 원·달러 환율은 달러당 1167.50원(작년 8월24일 종가 기준)에서 이달 24일까지 1342.10원으로 무려 174.60원이나 급등했다. 이처럼 원화 가치가 크게 떨어지면서 올 9월 출시될 아이폰14 국내 판매가격도 전작보다 20만원대 안팎으로 비싸질 것으로 예상되고 있다.현재 국내 아이폰13과 아이폰13 프로의 국내 출고가(256GB 기준)는 각각 122만1000원, 147만4000원이며 최상위 모델인 아이폰13프로맥스는 217만원(1TB 기준)이다. 업계에서는 아이폰14프로의 가격은 169만원(256GB 기준)에서 223만원(1TB 기준), 아이폰14프로맥스는 최고 237만원(1TB 기준)까지 인상될 것으로 예상하고 있다. 최근 원자재 가격 인상으로 미국 현지 출고가도 올라갈 것이란 예상이 나오고 있어 이같은 전망에 무게가 실리고 있다.23일 오후 서울 종로구 KT플라자 광화문역점에 삼성전자의 신제품 폴더블폰 '갤럭시Z폴드4'(폴드4)와 '갤럭시Z플립4'(플립4)가 전시돼 있다. 사진=뉴스1'애플 충성층' 2030여성, 갤럭시로 갈아탄다…반사이익 기대애플 전문 분석가 궈밍치도 최근 아이폰14 시리즈의 평균판매단가(ASP)가 전작보다 약 15% 상승할 것이란 예상을 내놨다. 아이폰 예상 가격이 전해지자 애플 충성 소비자들은 "너무 비싸 사지 않을 것" "올해 건너뛰고 내년에 사겠다" "눈물 머금고 전작을 구매할 것" 등 부담스럽다는 반응을 내놓고 있다.아이폰14 가격 상승이 기정사실화 되면서 경쟁사 삼성전자 갤럭시Z폴드4·플립4의 반사이익 기대감이 커지고 있다. 삼성전자가 지난 10일 내놓은 신작 갤럭시Z폴드4 가격은 256GB 기준 199만8700원으로 동결했다. Z플립4의 경우 135만3000원으로 전작보다 9만9000원(256GB 기준) 올리는 데 그쳤다. 원자재값 상승, 물류비 증가 등 인플레이션 압박을 고려하면 가격 인상 폭이 합리적이여서, 구매 수요를 자극할 것으로 예상된다.실제로 최근 갤럭시Z폴드4·플립4의 판매는 사전 예약 판매량이 100만대에 육박하며 양호한 성적을 보이고 있다. 하반기 녹록지 않은 환경속에 연 판매 1000만대 목표가 현실화될 것이란 기대가 커지고 있다. 업계 관계자는 "최근 아이폰을 선호하는 MZ세대, 특히 2030 여성 고객 사이에서 플립4의 판매가 돋보이고 있다는 점은 고무적"이라며 "아이폰 가격 인상이 확실시 되면 갤럭시Z폴드4·플립4의 반사이익이 기대된다"고 말했다.조아라 한경닷컴 기자 rrang123@hankyung.com ▶ 해외투자 '한경 글로벌마켓'과 함께하세요▶ 한국경제신문과 WSJ, 모바일한경으로 보세요 관련기사전 세계서 '압도적 꼴찌'…한국에 무슨 일이'수면 부족' 이렇게 무섭습니다…1시간만 덜 자도"K-믹스커피는 못참지"…맥심의 꿈 '바톤 터치'"이렇게 좋을 줄은"…강남 엄마들이 돈 버는 법쌍둥이도 아닌데 얼굴 닮았다면…몰랐던 사실</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>IT/과학</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>"영하 86도, 아직 살아 있어요"…화성 헬리콥터, 두 달 만에 비행</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://news.nate.com/view/20220824n06451?mid=n1006</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>혹독한 겨울 견뎌내며 30번째 비행첫 비행 후 1년4개월째 건재 과시장치 점검 후 정찰비행 재개 기대인류 최초의 지구밖 동력비행기인 인지뉴이티가 화성에서 30번째 비행을 했다.미국항공우주국(나사)은 화성에 있는 소형 헬리콥터 인지뉴이티가 29번째 비행을 마친 지 두달 만인 지난 20일 다시 날았다고 발표했다. 29번째 비행은 6월11일에 있었다.나사 제트추진연구소는 트위터를 통해 인지뉴이티의 한쪽 다리와 화성 표면이 담긴 비행중 촬영 사진을 공개하면서 “두달 간의 공백을 깨고 헬리콥터가 주말에 짧은 비행을 통해 여전히 살아 있다는 것을 확인하고 태양전지판의 먼지도 털어낼 수 있었다”고 밝혔다.33초 동안 2미터…쉽지 않았던 비행나사는 33초 동안 2미터를 날도록 이번 비행을 설계했다. 하지만 쉽지는 않을 것으로 예상했다.로봇탐사가 퍼시비런스가 활동하고 있는 예제로 충돌구의 삼각주 지역이 겨울을 맞고 태양전지판에 먼지가 더 쌓이면서 배터리를 제대로 충전할 수 없었기 때문이다. 나사에 따르면 현재 이 지역의 온도는 한밤에 영하 86도까지 내려간다. 나사는 이번 비행에 앞서 8월6일과 15일에 각각 몇초 동안 날개의 회전력을 시험했다.나사는 이제 100여일에 걸친 겨울이 점차 지나감에 따라 인지뉴이티의 충전 상태도 좋아져 몇달 안에는 삼각주 지역 정찰에 다시 나설 수 있을 것으로 기대하고 있다. 이를 위해 9월 중 비행 소프트웨어를 업그레이드할 계획이다.1년4개월간 총 비행거리 7km무게 1.8kg의 인지뉴이티는 지난해 4월19일 첫 비행 이후 애초 목표였던 5차례 시험비행을 훌쩍 뛰어넘어 로봇탐사차 퍼시비런스의 임무 수행을 위한 정찰 비행을 하고 있다.비행 고도는 5~12미터, 비행 속도는 평균 초속 5.5미터, 비행 거리는 100~625미터였다. 지금까지 총 비행 시간은 55.4분, 비행 거리는 7.08km다. 이제는 단순한 시험비행 단계를 벗어나 퍼시비런스의 여정을 돕는 사전 답사 비행 임무를 수행하고 있다.지난해 2월18일 화성에 착륙한 퍼시비런스는 지금까지 11.9km를 달려 현재 지난 5월부터 삼각주에서 탐사와 표본 수집 활동을 벌이고 있다. 지금까지 수집해 담은 표본은 12개로 목표치인 38개의 34%에 이른다.곽노필 선임기자 nopil@hani.co.kr&lt;한겨레 인기기사&gt;■ ‘김건희 팬클럽’ 대통령실 내부정보 또 유출…“XX시장 방문”■ “해양생물 90% 멸종될 것”…당신이 안 변하면 현실이 된다■ ‘세 모녀’ 주검 받아준 이 아무도 없었다…결국 무연고 장례■ [단독] ‘이해충돌 논란’ 조명희 의원, 가족회사 소속 협회서 고액 후원금■ 민주, ‘전당원투표’ 당헌 개정안 중앙위서 부결…‘당원 포퓰리즘’ 제동■ 이준석 “윤 대통령 유감 표명했다면 여기까지 안 왔다”■ 윤석열 대통령이 트럼프를 닮기 바란다 / 권태호■ 7살, 냉동차에 실려 도착한 지옥…“머리 박혀 다리 이층침대까지”■ “김건희 여사 수사할 수 있나”…공수처장 “네, 검토 중입니다”■ ‘우영우 팽나무’ 실제 천연기념물 된다▶▶&lt;한겨레&gt;기자들이 직접 보내는 뉴스레터를 받아보세요!▶▶동물 사랑? 애니멀피플을 빼놓곤 말할 수 없죠▶▶주말에도 당신과 함께, 한겨레 S-레터[ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>IT/과학</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>애플, '아이폰14' 내달 7일 공개 '확정'…초대장 발송</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://news.nate.com/view/20220825n04153?mid=n1006</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>- 25일 글로벌 미디어 대상 초대장 보내- 당초 9월13일 예상됐지만 일주일 당겨져- ‘아이폰14’ 4개 모델과 ‘애플워치8’ 등 공개 전망[이데일리 김정유 기자] 애플이 다음달 7일(미국 현지시간) 신제품 ‘아이폰14’를 공개한다. 애플은 25일 글로벌 미디어를 대상으로 ‘스페셜 이벤트’ 초대장을 발송했다. 스페셜 이벤트는 다음달 7일 미국 캘리포니아주 쿠퍼티노의 애플 파크에서 열린다. 초대장은 ‘저 너머로’라는 제목과 함께 ‘애플 파크에서 진행되는 애플 스페셜 이벤트 생중계에 여러분을 초대합니다. 애플닷컴에서 온라인으로 시청하세요’라는 문구와 함께 개최 시간을 명시했다.  통상적으로 애플은 매년 9월께 신형 아이폰을 소개해왔다. 올해는 ‘아이폰14’가 될 전망이다. 당초 외신에선 애플이 ‘아이폰14’ 공개 행사를 다음달 13일에 개최할 것으로 전망했지만 약 일주일 앞당겨졌다. 애플은 6.1인치 일반, 6.7인치 맥스, 6.1인치 프로, 6.7인치 프로 맥스 등 총 4가지 ‘아이폰14’ 모델을 공개할 것으로 보인다.‘아이폰14’ 프로 모델에는 4nm ‘A16 바이오닉 칩셋’이 장착될 전망이다. 프로 이외 모델들은 5nm ‘A15 바이오닉’ 칩셋이 적용될 것으로 예상된다.‘아이폰14’의 또 다른 변화점으로는 노치를 들 수 있다. ‘아이폰14’ 프로 모델의 경우 기존 노치를 교체할 것으로 보이며, 비(非) 프로 모델의 경우 노치를 계속해서 사용할 것으로 보인다.기타 개선사항으로는 ‘아이폰14’ 프로와 프로 맥스 모델에 120Hz 프로모션 디스플레이, 4800만 화소 와이드 카메라 등이 장착될 것으로 전망된다. ‘아이폰14’ 사전예약은 오는 17일부터 시작돼, 실제 판매는 24일부터 진행될 가능성이 높다. 가격도 관심사다. 앞서 외신에선 애플이 ‘아이폰14’와 ‘아이폰14’ 맥스 모델의 가격을 각각 799달러, 899달러로 책정할 것으로 예상했다. 프로와 프로맥스 가격은 1099달러, 1199달러부터 시작될 것으로 예상했다. 더불어 1TB, 2TB 옵션도 추가될 것으로 보인다.애플은 이번 행사에서 ‘아이폰14’ 외에도 신형 스마트워치 ‘애플워치8’, 맥(Mac), 아이패드 신제품 등도 함께 공개할 전망이다.▶ 관련기사 ◀☞ '8월25일' 꼬불꼬불 맛 좋은 '라면', 세상에 나오다[그해 오늘]☞ 강신업, 홍준표에 "XXX를.."…팬클럽 논란 '장외전'☞ 혼자 살던 시각장애인, 화재로 숨져…"현관에서 못 빠져나와"☞ "이은해, 남편에게 돈 받아 '동거남'과 생활비에 썼다"☞ 김건희 여사, 비공개 봉사활동...김정숙 여사와 다르다?[종합 경제 뉴스 이데일리 모바일 웹][이데일리 TV][이데일리 ON][MP트래블러][마켓포인트][투자정보 앱 투자플러스][이데일리 창업]＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞김정유 thec98@</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>IT/과학</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>쿠팡 난리났다…'신형 폴더블폰' 황당한 배송 소동, 무슨 일</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://news.nate.com/view/20220825n31559?mid=n1006</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>쿠팡을 통해 삼성전자의 새 폴더블폰을 사전예약 구매한 소비자 일부가 '빈 박스'를 받았다고 호소하고 있다. 홍승희 기자 [쿠팡 구매평 캡처][헤럴드경제=홍승희 기자] “예약판매 수 ‘역대급’이라던 신형 폴더블폰… 쿠팡이 찬물?”나오자마자 역대급 사전 판매량을 기록한 신형 폴더블폰(접는폰)에 찬물을 끼얹는 일이 발생했다. 최근 쿠팡에서 갤럭시Z플립4를 구매했다가 원인 모를 사건으로 ‘빈 박스’를 받았다는 고객들이 속출하고 있다.25일 쿠팡에는 “갤럭시Z플립4를 쿠팡에서 사전예약 후 배송받았는데 빈 박스가 왔다”는 구매평이 이어지고 있다. 한 소비자 A씨는 “빈 박스로 와서 어이가 없다”며 “환불 처리해줄 테니 다시 구매하라는 답변을 받았다”고 썼다. 같은 일을 경험한 또 다른 소비자는 “검색해보니 오래전부터 이런 일이 비일비재한 것 같은데 개선을 안 하는 건지, 못 하는 건지(모르겠다)”라고 말했다.쿠팡은 해당 사건의 경위를 자체적으로 조사한 후 경찰 수사를 의뢰할 계획이다. 일부 소비자는 박스 밑단의 쿠팡 테이프가 잘린 흔적이 일부 발견됐다고 증언했다. 이에 따라 발송 및 배송 과정에서 사건이 발생한 것 아니냐는 추측이 제기되고 있다.삼성전자 갤럭시Z플립4. 김민지 기자쿠팡의 갤럭시Z플립4 구매평에는 이같이 제품은 없고 비밀만 담긴 '빈 박스'를 받았다는 소비자들이 속출하고 있다. [쿠팡]피해를 본 소비자들은 하나같이 쿠팡이 교환이 아닌 ‘환불’정책만 고수한다며 불만을 제기하고 있다. 삼성전자는 사전예약을 할 때 ▷13% 할인 ▷카드 무이자할부 ▷사은품 등의 혜택을 제공하는데 쿠팡의 안내대로 환불 이후 제품을 재구매하면 현재는 사전예약기간이 끝나 다시 주문해도 이 혜택을 받을 수 없기 때문이다. 같은 일을 겪은 소비자 C씨는 “사전예약기간에 구매한 고객들이 정당한 교환 절차를 밟을 수 있도록 처리해 달라”며 “구매할 당시 가격과 혜택이 전혀 다른데 재구매를 하라니 황당하다”고 주장했다.하지만 쿠팡은 해당 ‘교환’정책에 대해선 말을 아끼고 있다. 쿠팡 관계자는 “신속한 조사를 통해 사실을 파악하고 수사 의뢰 등의 강력한 조치를 취할 예정이다. 피해를 입은 고객에 대해서는 빠르게 환불을 포함한 피해보상 조치가 진행 중”이라고 설명했다. 다만 소비자들이 요구하고 있는 교환정책을 실행할지에 대해서는 답변을 얻을 수 없었다.한편 삼성전자는 갤럭시Z폴드4·플립4 사전판매가 100만대에 육박한다고 밝혔다. 이는 전작 갤럭시Z폴드3·플립3 92만대를 훌쩍 뛰어넘은 신기록이다. 새 폴더블폰에 대한 기대 이상의 호응으로 고무돼 있던 삼성 측도 이번 사태에 대해 매우 불쾌해하고 있는 것으로 전해진다. hss@heraldcorp.com[베스트 클릭! 헤럴드 경제 얼리어답터 뉴스] ▶ [르포] 태백 고랭지 배추밭 3분1이 쑥대밭됐다 ▶ “결혼하고 싶은 솔로 100만원씩 줬더니” 400억원 ‘떼돈’ 번 회사 ▶ 주인 살린 ‘복순이’, 코 베이는 학대 뒤 보신탕집에 버려졌다 ▶ ‘사망선고’ 받았다가 장례식장서 눈뜬 3살 아이…결국 영면 ▶ 대학교수 된 93년생 유튜버…‘구독자 23만’ 그녀 ▶ 인형 뽑기방 대변봤던 여성 죄목이 재물손괴죄? ▶ “넷플릭스보다 비싸, 누가 가?” 티켓값 올린 영화관, 망할 줄 알았는데 ▶ 文 “돌아만 봐도 복받을 것 같다” 빗속 뚫고 찾은 ‘이곳’ ▶ 깻잎에 모래가 '양념'처럼...중국산 깻잎김치 담배꽁초 이어 또 ▶ “강유미가 소개팅시켜 줬더니” 난리난 ‘이 회사’ 1천만명 몰렸다Copyright ⓒ 헤럴드경제 All Rights Reserved.</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>미국항공우주국(나사)은 지구밖 동력비행기인 인지뉴이티가 29번째 비행을 마친 지 두달 만인 지난 20일 다시 날았다고 발표했다.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
